--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13212"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="252">
   <si>
     <t>First Name</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>Anchal Jain</t>
+  </si>
+  <si>
+    <t>Aryan</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3447,6 +3450,22 @@
         <v>8923825140</v>
       </c>
     </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>37</v>
+      </c>
+      <c r="B288">
+        <v>8450956615</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>251</v>
+      </c>
+      <c r="B289">
+        <v>7020120468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="253">
   <si>
     <t>First Name</t>
   </si>
@@ -775,6 +775,9 @@
   </si>
   <si>
     <t>Aryan</t>
+  </si>
+  <si>
+    <t>Aashish Massand</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3466,6 +3469,22 @@
         <v>7020120468</v>
       </c>
     </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>246</v>
+      </c>
+      <c r="B290">
+        <v>9875644657</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>252</v>
+      </c>
+      <c r="B291">
+        <v>9983442421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="253">
   <si>
     <t>First Name</t>
   </si>
@@ -1145,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B292" sqref="B292"/>
+      <selection activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3485,6 +3485,14 @@
         <v>9983442421</v>
       </c>
     </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>246</v>
+      </c>
+      <c r="B292">
+        <v>9854615863</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="549">
   <si>
     <t>First Name</t>
   </si>
@@ -756,28 +756,916 @@
     <t>Prinssy</t>
   </si>
   <si>
-    <t>Piyush Khattar</t>
-  </si>
-  <si>
-    <t>Riya Arora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ineka </t>
-  </si>
-  <si>
-    <t>Abhijeet</t>
-  </si>
-  <si>
-    <t>Manish</t>
-  </si>
-  <si>
-    <t>Anchal Jain</t>
-  </si>
-  <si>
     <t>Aryan</t>
   </si>
   <si>
-    <t>Aashish Massand</t>
+    <t>Vatsal Shukla</t>
+  </si>
+  <si>
+    <t>Aditya agrawal</t>
+  </si>
+  <si>
+    <t>Ajinkya Laud</t>
+  </si>
+  <si>
+    <t>Sandesh Suresh Gavandi</t>
+  </si>
+  <si>
+    <t>Rehaan khatri</t>
+  </si>
+  <si>
+    <t>Shantanu Maity</t>
+  </si>
+  <si>
+    <t>Kapil Sharma</t>
+  </si>
+  <si>
+    <t>Rahul Ramkumar yadav</t>
+  </si>
+  <si>
+    <t>Ansh Mishra</t>
+  </si>
+  <si>
+    <t>Soham Waghmode</t>
+  </si>
+  <si>
+    <t>Shebany Moro</t>
+  </si>
+  <si>
+    <t>Zainali Varteji</t>
+  </si>
+  <si>
+    <t>YAKSHITH AMBRE</t>
+  </si>
+  <si>
+    <t>Mihir Date</t>
+  </si>
+  <si>
+    <t>Vedant Lakhani</t>
+  </si>
+  <si>
+    <t>Jai Gujarathi</t>
+  </si>
+  <si>
+    <t>Amrith Padmanand</t>
+  </si>
+  <si>
+    <t>Aaron Arickswamy</t>
+  </si>
+  <si>
+    <t>Arunabh majumdar</t>
+  </si>
+  <si>
+    <t>Dev talreja</t>
+  </si>
+  <si>
+    <t>Soumil</t>
+  </si>
+  <si>
+    <t>Akshay Desai</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Harshil Shreekant koradia</t>
+  </si>
+  <si>
+    <t>Rounak</t>
+  </si>
+  <si>
+    <t>Alan fernandes</t>
+  </si>
+  <si>
+    <t>Manas Gujaria</t>
+  </si>
+  <si>
+    <t>Pratyush Iyer</t>
+  </si>
+  <si>
+    <t>Kaustubh Ghagare</t>
+  </si>
+  <si>
+    <t>HAMZA ABID MULLA</t>
+  </si>
+  <si>
+    <t>Rushabh Mody</t>
+  </si>
+  <si>
+    <t>Dhananjay Kanaujia</t>
+  </si>
+  <si>
+    <t>AQIB ABID MULLA</t>
+  </si>
+  <si>
+    <t>Mohnish K</t>
+  </si>
+  <si>
+    <t>Surendra</t>
+  </si>
+  <si>
+    <t>Pradeep kakar</t>
+  </si>
+  <si>
+    <t>Gopal Kumar</t>
+  </si>
+  <si>
+    <t>Riddish Poladia</t>
+  </si>
+  <si>
+    <t>Atharva</t>
+  </si>
+  <si>
+    <t>Ritwik</t>
+  </si>
+  <si>
+    <t>Parth Kadam</t>
+  </si>
+  <si>
+    <t>Rishveed Sali</t>
+  </si>
+  <si>
+    <t>Anuj Munot</t>
+  </si>
+  <si>
+    <t>Aditya Vyas</t>
+  </si>
+  <si>
+    <t>Gops</t>
+  </si>
+  <si>
+    <t>Ishan Gandhi</t>
+  </si>
+  <si>
+    <t>Upasana Singh</t>
+  </si>
+  <si>
+    <t>Shiv Masand</t>
+  </si>
+  <si>
+    <t>Pravin Dhondkar</t>
+  </si>
+  <si>
+    <t>Syed Sajjad</t>
+  </si>
+  <si>
+    <t>Huzefa Rangwala</t>
+  </si>
+  <si>
+    <t>Mehernosh Patel</t>
+  </si>
+  <si>
+    <t>Mohammed jawad husain</t>
+  </si>
+  <si>
+    <t>Purv Ashar</t>
+  </si>
+  <si>
+    <t>Nabendu kamat</t>
+  </si>
+  <si>
+    <t>Paul Bosco Mascarenhas</t>
+  </si>
+  <si>
+    <t>udit chheda</t>
+  </si>
+  <si>
+    <t>Humaira</t>
+  </si>
+  <si>
+    <t>Rahul Budhrani</t>
+  </si>
+  <si>
+    <t>Josveen Menezes</t>
+  </si>
+  <si>
+    <t>Rutvij</t>
+  </si>
+  <si>
+    <t>Abhimanyu Nagrani</t>
+  </si>
+  <si>
+    <t>Mumbai North West</t>
+  </si>
+  <si>
+    <t>Sherwin</t>
+  </si>
+  <si>
+    <t>Ashish</t>
+  </si>
+  <si>
+    <t>Yashesh Shah</t>
+  </si>
+  <si>
+    <t>Krutika sutar</t>
+  </si>
+  <si>
+    <t>Chivonn Fernandes</t>
+  </si>
+  <si>
+    <t>Kabir Singh Ahuja</t>
+  </si>
+  <si>
+    <t>Ronak Sejpal</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Manan Joshi</t>
+  </si>
+  <si>
+    <t>Bilal Manihar</t>
+  </si>
+  <si>
+    <t>Gokul</t>
+  </si>
+  <si>
+    <t>Saurabh Jain</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Zeeshan Patel</t>
+  </si>
+  <si>
+    <t>Shubham Das</t>
+  </si>
+  <si>
+    <t>Maganti devasish</t>
+  </si>
+  <si>
+    <t>Arya Patel</t>
+  </si>
+  <si>
+    <t>Yasir merchant</t>
+  </si>
+  <si>
+    <t>Ravi Thakur</t>
+  </si>
+  <si>
+    <t>Vivek Choudhary</t>
+  </si>
+  <si>
+    <t>Dhiraj Malhotra</t>
+  </si>
+  <si>
+    <t>Siddhant</t>
+  </si>
+  <si>
+    <t>Roshan Gujaran</t>
+  </si>
+  <si>
+    <t>Sandip</t>
+  </si>
+  <si>
+    <t>Shivang</t>
+  </si>
+  <si>
+    <t>Yuvraj</t>
+  </si>
+  <si>
+    <t>Ajit Martis</t>
+  </si>
+  <si>
+    <t>Samay Gangar</t>
+  </si>
+  <si>
+    <t>Omkar Gawas</t>
+  </si>
+  <si>
+    <t>Mridul Choudhary</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Shankar Menon</t>
+  </si>
+  <si>
+    <t>Keshav</t>
+  </si>
+  <si>
+    <t>Abdul Rahim Shaikh</t>
+  </si>
+  <si>
+    <t>Neil Sachdev</t>
+  </si>
+  <si>
+    <t>Deepak Saini</t>
+  </si>
+  <si>
+    <t>Aditya jagtap</t>
+  </si>
+  <si>
+    <t>Akshay Dalvi</t>
+  </si>
+  <si>
+    <t>Manang</t>
+  </si>
+  <si>
+    <t>Amey</t>
+  </si>
+  <si>
+    <t>Priyanshu</t>
+  </si>
+  <si>
+    <t>Rahul Kapoor</t>
+  </si>
+  <si>
+    <t>Joel Raji</t>
+  </si>
+  <si>
+    <t>Bhargav Waikar</t>
+  </si>
+  <si>
+    <t>Venkatesh Chilka</t>
+  </si>
+  <si>
+    <t>Huzaifa</t>
+  </si>
+  <si>
+    <t>Rushabh Pandit</t>
+  </si>
+  <si>
+    <t>Kuntal Verma</t>
+  </si>
+  <si>
+    <t>Vitus</t>
+  </si>
+  <si>
+    <t>Lewis Jose</t>
+  </si>
+  <si>
+    <t>Devavrat Nimbalkar</t>
+  </si>
+  <si>
+    <t>Monik Doshi</t>
+  </si>
+  <si>
+    <t>Atharva khot</t>
+  </si>
+  <si>
+    <t>SUHIT</t>
+  </si>
+  <si>
+    <t>Tanmay Vora</t>
+  </si>
+  <si>
+    <t>Rylan</t>
+  </si>
+  <si>
+    <t>mannat</t>
+  </si>
+  <si>
+    <t>Sahil Sawant</t>
+  </si>
+  <si>
+    <t>Ashu Maxwell</t>
+  </si>
+  <si>
+    <t>Roshan</t>
+  </si>
+  <si>
+    <t>Sunil Pawar</t>
+  </si>
+  <si>
+    <t>Manan</t>
+  </si>
+  <si>
+    <t>Jayvardhan</t>
+  </si>
+  <si>
+    <t>aaryan bagri</t>
+  </si>
+  <si>
+    <t>Siddhant mapuskar</t>
+  </si>
+  <si>
+    <t>Alex Anthony</t>
+  </si>
+  <si>
+    <t>Varun Karkar</t>
+  </si>
+  <si>
+    <t>Anuj</t>
+  </si>
+  <si>
+    <t>Aldrin Dcosta</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Sabiq</t>
+  </si>
+  <si>
+    <t>Pratik Priyadarshi</t>
+  </si>
+  <si>
+    <t>Ved</t>
+  </si>
+  <si>
+    <t>Prasanth Moorthy</t>
+  </si>
+  <si>
+    <t>Devansh Nigam</t>
+  </si>
+  <si>
+    <t>Mrudul</t>
+  </si>
+  <si>
+    <t>Pranay Mehta</t>
+  </si>
+  <si>
+    <t>Pranay</t>
+  </si>
+  <si>
+    <t>Parth</t>
+  </si>
+  <si>
+    <t>Ameena</t>
+  </si>
+  <si>
+    <t>NIKESH</t>
+  </si>
+  <si>
+    <t>David John</t>
+  </si>
+  <si>
+    <t>Sahil Chodhari</t>
+  </si>
+  <si>
+    <t>Rahul Desai</t>
+  </si>
+  <si>
+    <t>Sahil Vijay Shah</t>
+  </si>
+  <si>
+    <t>Arya Ballamwar</t>
+  </si>
+  <si>
+    <t>Jamshed</t>
+  </si>
+  <si>
+    <t>Aditya Hijam</t>
+  </si>
+  <si>
+    <t>Rohil Shetty</t>
+  </si>
+  <si>
+    <t>Aryan Yugpurush</t>
+  </si>
+  <si>
+    <t>Tanvi</t>
+  </si>
+  <si>
+    <t>Anuvrinda Mullick</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>Rushilraj Mullick</t>
+  </si>
+  <si>
+    <t>yaksh joshi</t>
+  </si>
+  <si>
+    <t>Veer</t>
+  </si>
+  <si>
+    <t>Unnati Kumar</t>
+  </si>
+  <si>
+    <t>Dharam Desa</t>
+  </si>
+  <si>
+    <t>Faron</t>
+  </si>
+  <si>
+    <t>Aatif Tida</t>
+  </si>
+  <si>
+    <t>Jagrat Desai</t>
+  </si>
+  <si>
+    <t>Nilay Sanghvi</t>
+  </si>
+  <si>
+    <t>Girnesh</t>
+  </si>
+  <si>
+    <t>Kiran Palande</t>
+  </si>
+  <si>
+    <t>Samraj Thakur</t>
+  </si>
+  <si>
+    <t>Jimit</t>
+  </si>
+  <si>
+    <t>Bhavya Jain</t>
+  </si>
+  <si>
+    <t>Animesh Thakkar</t>
+  </si>
+  <si>
+    <t>Dushyant</t>
+  </si>
+  <si>
+    <t>Chirag Shah</t>
+  </si>
+  <si>
+    <t>Diya Jain</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>Aryan Dhamejani</t>
+  </si>
+  <si>
+    <t>Samanvay Bartia</t>
+  </si>
+  <si>
+    <t>Vivian Bangera</t>
+  </si>
+  <si>
+    <t>Bryan Fernandes</t>
+  </si>
+  <si>
+    <t>Niranjan Savant</t>
+  </si>
+  <si>
+    <t>Arjun Deo</t>
+  </si>
+  <si>
+    <t>Vismay jain</t>
+  </si>
+  <si>
+    <t>Saiansh Katyal</t>
+  </si>
+  <si>
+    <t>Rohit Jain</t>
+  </si>
+  <si>
+    <t>Mayur Mirgal</t>
+  </si>
+  <si>
+    <t>Rishit vikash</t>
+  </si>
+  <si>
+    <t>Kartik Jaiswal</t>
+  </si>
+  <si>
+    <t>Smith Karekar</t>
+  </si>
+  <si>
+    <t>Saad</t>
+  </si>
+  <si>
+    <t>Raj Thakkar</t>
+  </si>
+  <si>
+    <t>Darshit</t>
+  </si>
+  <si>
+    <t>Krish Shah</t>
+  </si>
+  <si>
+    <t>Ethan Lobo</t>
+  </si>
+  <si>
+    <t>Chinmay Shah</t>
+  </si>
+  <si>
+    <t>Neel Gada</t>
+  </si>
+  <si>
+    <t>Praneet Anul</t>
+  </si>
+  <si>
+    <t>Abhay Vaidya</t>
+  </si>
+  <si>
+    <t>Mayur Dabholkar</t>
+  </si>
+  <si>
+    <t>Priyanshu Padhi</t>
+  </si>
+  <si>
+    <t>Dhaval Bhanushali</t>
+  </si>
+  <si>
+    <t>Soham Gaikwad</t>
+  </si>
+  <si>
+    <t>Viyansh</t>
+  </si>
+  <si>
+    <t>Siddh gandhi</t>
+  </si>
+  <si>
+    <t>Neil Patel</t>
+  </si>
+  <si>
+    <t>Kaveesh</t>
+  </si>
+  <si>
+    <t>Shanay Jariwala</t>
+  </si>
+  <si>
+    <t>Nehaal Choudhary</t>
+  </si>
+  <si>
+    <t>Rohit Gangwani</t>
+  </si>
+  <si>
+    <t>Tanish Mayekar</t>
+  </si>
+  <si>
+    <t>rishi shah</t>
+  </si>
+  <si>
+    <t>Swayam</t>
+  </si>
+  <si>
+    <t>Ankur Sinha</t>
+  </si>
+  <si>
+    <t>Aaditya</t>
+  </si>
+  <si>
+    <t>Tejas Doshi</t>
+  </si>
+  <si>
+    <t>Atharva Trivedi</t>
+  </si>
+  <si>
+    <t>Jash Jain</t>
+  </si>
+  <si>
+    <t>Swayam Pattanaik</t>
+  </si>
+  <si>
+    <t>Roshan Bhatt</t>
+  </si>
+  <si>
+    <t>Rio Rodrigues</t>
+  </si>
+  <si>
+    <t>Parth Shah</t>
+  </si>
+  <si>
+    <t>Himanshu Surve</t>
+  </si>
+  <si>
+    <t>Christelle</t>
+  </si>
+  <si>
+    <t>Atharv</t>
+  </si>
+  <si>
+    <t>Navneet Mishra</t>
+  </si>
+  <si>
+    <t>Amitabh Nachar</t>
+  </si>
+  <si>
+    <t>Sayansh</t>
+  </si>
+  <si>
+    <t>Kiana</t>
+  </si>
+  <si>
+    <t>Christelle Carneiro Alphonso</t>
+  </si>
+  <si>
+    <t>SUMITRA</t>
+  </si>
+  <si>
+    <t>Nash DSouza</t>
+  </si>
+  <si>
+    <t>Ramnarayan Dash</t>
+  </si>
+  <si>
+    <t>Aniruddh karle</t>
+  </si>
+  <si>
+    <t>Dharik Rajawat</t>
+  </si>
+  <si>
+    <t>Kush Shah</t>
+  </si>
+  <si>
+    <t>Jehan Dhabhar</t>
+  </si>
+  <si>
+    <t>Hurrain Sheikh</t>
+  </si>
+  <si>
+    <t>Aarush Kahnani</t>
+  </si>
+  <si>
+    <t>Keane Noronha</t>
+  </si>
+  <si>
+    <t>Pratham Mohite</t>
+  </si>
+  <si>
+    <t>Dhruvin Gosar</t>
+  </si>
+  <si>
+    <t>Aldridge DSouza</t>
+  </si>
+  <si>
+    <t>Fahad Sheikh</t>
+  </si>
+  <si>
+    <t>Varun Bablani</t>
+  </si>
+  <si>
+    <t>Shayaan</t>
+  </si>
+  <si>
+    <t>Aniruddh Wadhi</t>
+  </si>
+  <si>
+    <t>Tanmay Singh</t>
+  </si>
+  <si>
+    <t>Annujj Palaye</t>
+  </si>
+  <si>
+    <t>Sandesh Shetty</t>
+  </si>
+  <si>
+    <t>Amit Dubey</t>
+  </si>
+  <si>
+    <t>PRATHAM MOTA</t>
+  </si>
+  <si>
+    <t>Kairav Khanna</t>
+  </si>
+  <si>
+    <t>Aavez</t>
+  </si>
+  <si>
+    <t>Vedaant Kanal</t>
+  </si>
+  <si>
+    <t>Denver Fernandes</t>
+  </si>
+  <si>
+    <t>Shailesh</t>
+  </si>
+  <si>
+    <t>Karan Ullas</t>
+  </si>
+  <si>
+    <t>Tanay</t>
+  </si>
+  <si>
+    <t>Anthony Menezes</t>
+  </si>
+  <si>
+    <t>Nishad Govekar</t>
+  </si>
+  <si>
+    <t>Sunil Thakur</t>
+  </si>
+  <si>
+    <t>Darryl Furtado</t>
+  </si>
+  <si>
+    <t>Devvrat Shashikant Mainhallikar</t>
+  </si>
+  <si>
+    <t>Vikas Mahajan</t>
+  </si>
+  <si>
+    <t>Shehzan Shaikh</t>
+  </si>
+  <si>
+    <t>Shivam Shah</t>
+  </si>
+  <si>
+    <t>Swatej Kamble</t>
+  </si>
+  <si>
+    <t>Mihir</t>
+  </si>
+  <si>
+    <t>Sid</t>
+  </si>
+  <si>
+    <t>Martin Mathew</t>
+  </si>
+  <si>
+    <t>Sharun Salvi</t>
+  </si>
+  <si>
+    <t>Kaivalya Shah</t>
+  </si>
+  <si>
+    <t>kanishk shinde</t>
+  </si>
+  <si>
+    <t>Yash Vardhan</t>
+  </si>
+  <si>
+    <t>Pranav</t>
+  </si>
+  <si>
+    <t>KANISHK</t>
+  </si>
+  <si>
+    <t>Vedant Oberoi</t>
+  </si>
+  <si>
+    <t>Nishant</t>
+  </si>
+  <si>
+    <t>Pranav kenjale</t>
+  </si>
+  <si>
+    <t>Kinjal mota</t>
+  </si>
+  <si>
+    <t>Monil Vora</t>
+  </si>
+  <si>
+    <t>Monish Soni</t>
+  </si>
+  <si>
+    <t>Deep Chhadva</t>
+  </si>
+  <si>
+    <t>Merrill Rosario</t>
+  </si>
+  <si>
+    <t>Vipul</t>
+  </si>
+  <si>
+    <t>Shray singh</t>
+  </si>
+  <si>
+    <t>Maunik patel</t>
+  </si>
+  <si>
+    <t>Nikhil Purohit</t>
+  </si>
+  <si>
+    <t>Shreshth</t>
+  </si>
+  <si>
+    <t>Jatin</t>
+  </si>
+  <si>
+    <t>Deepak Nadar</t>
+  </si>
+  <si>
+    <t>Varun Varatharajan</t>
+  </si>
+  <si>
+    <t>Sahiti</t>
+  </si>
+  <si>
+    <t>Niharika</t>
+  </si>
+  <si>
+    <t>Devansh Kothari</t>
+  </si>
+  <si>
+    <t>Nirvan Shetty</t>
+  </si>
+  <si>
+    <t>Rishi Kumar Rai</t>
+  </si>
+  <si>
+    <t>Anubhav Shetty</t>
+  </si>
+  <si>
+    <t>Nischay Nisar</t>
+  </si>
+  <si>
+    <t>Pulkit</t>
+  </si>
+  <si>
+    <t>Heinz</t>
+  </si>
+  <si>
+    <t>Caroline Patricia Simon</t>
+  </si>
+  <si>
+    <t>MOHD HAIZAN</t>
+  </si>
+  <si>
+    <t>Nuttapong Hoowong</t>
   </si>
 </sst>
 </file>
@@ -1145,16 +2033,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B292"/>
+  <dimension ref="A1:B637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="C292" sqref="C292"/>
+    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1167,2330 +2055,5090 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="B2">
-        <v>9899471626</v>
+        <v>9962377585</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="B3">
-        <v>9021783215</v>
+        <v>7991135145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="B4">
-        <v>9701998419</v>
+        <v>9167556068</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="B5">
-        <v>8097305089</v>
+        <v>8356991159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="B6">
-        <v>8097305089</v>
+        <v>9920978555</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>251</v>
       </c>
       <c r="B7">
-        <v>9920555036</v>
+        <v>9821283989</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="B8">
-        <v>9773219438</v>
+        <v>9920820716</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="B9">
-        <v>9653786661</v>
+        <v>9727328234</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="B10">
-        <v>8652270666</v>
+        <v>9987318884</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="B11">
-        <v>9619118248</v>
+        <v>9820008384</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="B12">
-        <v>7710047897</v>
+        <v>9765269649</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="B13">
-        <v>9930612898</v>
+        <v>9769426565</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="B14">
-        <v>9930612898</v>
+        <v>8879685456</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="B15">
-        <v>7977593094</v>
+        <v>8652870252</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c r="B16">
-        <v>9371338679</v>
+        <v>9819506668</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="B17">
-        <v>9920300903</v>
+        <v>9619796198</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="B18">
-        <v>9527959565</v>
+        <v>8898092942</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="B19">
-        <v>8928606139</v>
+        <v>9819476088</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="B20">
-        <v>8879092962</v>
+        <v>8779248780</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="B21">
-        <v>8285223344</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="B22">
-        <v>9967792829</v>
+        <v>9137722528</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="B23">
-        <v>9096651692</v>
+        <v>9619891599</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="B24">
-        <v>9867348857</v>
+        <v>9920975337</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="B25">
-        <v>6009236312</v>
+        <v>9920386052</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="B26">
-        <v>6009236312</v>
+        <v>9820285826</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="B27">
-        <v>9612464595</v>
+        <v>8369179520</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="B28">
-        <v>9967232595</v>
+        <v>9820932510</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="B29">
-        <v>7710994260</v>
+        <v>7000160927</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="B30">
-        <v>8605437788</v>
+        <v>9820942887</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>274</v>
       </c>
       <c r="B31">
-        <v>9820281589</v>
+        <v>8097305089</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="B32">
-        <v>9911346303</v>
+        <v>9833820073</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="B33">
-        <v>9820451303</v>
+        <v>9819052196</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="B34">
-        <v>7219896663</v>
+        <v>9910005269</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="B35">
-        <v>7666416488</v>
+        <v>8652429386</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="B36">
-        <v>9820363646</v>
+        <v>8652429386</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="B37">
-        <v>9372365043</v>
+        <v>7977909778</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="B38">
-        <v>9833117443</v>
+        <v>8169360339</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="B39">
-        <v>8450956615</v>
+        <v>9870330448</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="B40">
-        <v>9326065876</v>
+        <v>9870060801</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B41">
-        <v>8828870458</v>
+        <v>9869564206</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="B42">
-        <v>9330351007</v>
+        <v>9525522047</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>9819216439</v>
+        <v>9773219438</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="B44">
-        <v>9326772320</v>
+        <v>8108647645</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="B45">
-        <v>8698155594</v>
+        <v>9833431699</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="B46">
-        <v>9810252312</v>
+        <v>7021345176</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="B47">
-        <v>9820512543</v>
+        <v>8530660891</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="B48">
-        <v>8879498384</v>
+        <v>7021450254</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="B49">
-        <v>7977201625</v>
+        <v>8652552788</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="B50">
-        <v>9833993966</v>
+        <v>9825625465</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="B51">
-        <v>9833993966</v>
+        <v>8291429530</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>291</v>
       </c>
       <c r="B52">
-        <v>9833993966</v>
+        <v>8097087525</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>292</v>
       </c>
       <c r="B53">
-        <v>9833993966</v>
+        <v>9619639825</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="B54">
-        <v>9769459690</v>
+        <v>9833429262</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="B55">
-        <v>9769459690</v>
+        <v>9663700375</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>294</v>
       </c>
       <c r="B56">
-        <v>8693003000</v>
+        <v>9920526765</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="B57">
-        <v>9619192575</v>
+        <v>9769349626</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="B58">
-        <v>9025099113</v>
+        <v>9769793813</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>297</v>
       </c>
       <c r="B59">
-        <v>9025099113</v>
+        <v>7400058805</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>298</v>
       </c>
       <c r="B60">
-        <v>9821576884</v>
+        <v>9820583089</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>299</v>
       </c>
       <c r="B61">
-        <v>9022106920</v>
+        <v>7977253838</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="B62">
-        <v>9511774841</v>
+        <v>7977253838</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="B63">
-        <v>9820721410</v>
+        <v>9833124342</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="B64">
-        <v>9962551828</v>
+        <v>9820986617</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>302</v>
       </c>
       <c r="B65">
-        <v>9321445711</v>
+        <v>9167470189</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>303</v>
       </c>
       <c r="B66">
-        <v>8097280360</v>
+        <v>9096298285</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>304</v>
       </c>
       <c r="B67">
-        <v>8446910423</v>
+        <v>7718945445</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="B68">
-        <v>7559360478</v>
+        <v>9867698421</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>306</v>
       </c>
       <c r="B69">
-        <v>8999372024</v>
+        <v>7718007890</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="B70">
-        <v>9028233523</v>
+        <v>9833198960</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="B71">
-        <v>9920563414</v>
+        <v>7353574397</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="B72">
-        <v>9689444578</v>
+        <v>7353574397</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>309</v>
       </c>
       <c r="B73">
-        <v>7776858986</v>
+        <v>9372945464</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>310</v>
       </c>
       <c r="B74">
-        <v>9890115400</v>
+        <v>8291586758</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="B75">
-        <v>9403839799</v>
+        <v>7977450445</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B76">
-        <v>9689444578</v>
+        <v>9653661588</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>313</v>
       </c>
       <c r="B77">
-        <v>7620587795</v>
+        <v>9619110336</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>314</v>
       </c>
       <c r="B78">
-        <v>9657960484</v>
+        <v>8976222147</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="B79">
-        <v>9769217536</v>
+        <v>9987650385</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="B80">
-        <v>9820258657</v>
+        <v>8291429175</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>317</v>
       </c>
       <c r="B81">
-        <v>8693834003</v>
+        <v>9920442402</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="B82">
-        <v>7021516932</v>
+        <v>8850167369</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="B83">
-        <v>9673636981</v>
+        <v>7045125287</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="B84">
-        <v>8669104877</v>
+        <v>8879188259</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="B85">
-        <v>8669104877</v>
+        <v>7021000734</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="B86">
-        <v>8169616067</v>
+        <v>9167001530</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="B87">
-        <v>8097037176</v>
+        <v>9040478900</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="B88">
-        <v>6026868805</v>
+        <v>9963447189</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="B89">
-        <v>6026868805</v>
+        <v>9820119728</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="B90">
-        <v>9321370806</v>
+        <v>740039888</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="B91">
-        <v>9833250497</v>
+        <v>8383824428</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="B92">
-        <v>6364650953</v>
+        <v>740039888</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="B93">
-        <v>9969261694</v>
+        <v>9029413621</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="B94">
-        <v>9819230083</v>
+        <v>9833172241</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="B95">
-        <v>9820126146</v>
+        <v>7977949921</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="B96">
-        <v>9871644466</v>
+        <v>9892781748</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="B97">
-        <v>7506285989</v>
+        <v>7506600028</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="B98">
-        <v>9757168723</v>
+        <v>8451954202</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>334</v>
       </c>
       <c r="B99">
-        <v>8657932932</v>
+        <v>9321564419</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>332</v>
       </c>
       <c r="B100">
-        <v>9321772075</v>
+        <v>7506600028</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="B101">
-        <v>9321772075</v>
+        <v>9820980925</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="B102">
-        <v>9836295855</v>
+        <v>9819032325</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="B103">
-        <v>9920080801</v>
+        <v>9167143142</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>338</v>
       </c>
       <c r="B104">
-        <v>9004574044</v>
+        <v>9619328315</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="B105">
-        <v>9920080801</v>
+        <v>7045913619</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>339</v>
       </c>
       <c r="B106">
-        <v>9920080801</v>
+        <v>9987274766</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="B107">
-        <v>9699402060</v>
+        <v>9167308720</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="B108">
-        <v>9167758995</v>
+        <v>9833156022</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>95</v>
+        <v>340</v>
       </c>
       <c r="B109">
-        <v>8484031607</v>
+        <v>9930113596</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>96</v>
+        <v>341</v>
       </c>
       <c r="B110">
-        <v>8097852203</v>
+        <v>8767178992</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>97</v>
+        <v>342</v>
       </c>
       <c r="B111">
-        <v>9324618465</v>
+        <v>7738264635</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="B112">
-        <v>9606853332</v>
+        <v>9021783215</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B113">
-        <v>9606853332</v>
+        <v>9820097324</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
       <c r="B114">
-        <v>8693003000</v>
+        <v>7400336795</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>344</v>
       </c>
       <c r="B115">
-        <v>7400208167</v>
+        <v>9082476017</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>345</v>
       </c>
       <c r="B116">
-        <v>8976424429</v>
+        <v>9137924486</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="B117">
-        <v>7558573207</v>
+        <v>9619161441</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="B118">
-        <v>9769725949</v>
+        <v>9833005259</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>348</v>
       </c>
       <c r="B119">
-        <v>9619470025</v>
+        <v>9326473940</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>104</v>
+        <v>349</v>
       </c>
       <c r="B120">
-        <v>8879071063</v>
+        <v>9321661551</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>105</v>
+        <v>350</v>
       </c>
       <c r="B121">
-        <v>9619318643</v>
+        <v>9820798696</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>351</v>
       </c>
       <c r="B122">
-        <v>9999048026</v>
+        <v>7738546861</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>352</v>
       </c>
       <c r="B123">
-        <v>9820837271</v>
+        <v>9136416888</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>353</v>
       </c>
       <c r="B124">
-        <v>7666416488</v>
+        <v>8657324965</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>109</v>
+        <v>354</v>
       </c>
       <c r="B125">
-        <v>9930110800</v>
+        <v>9619508230</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="B126">
-        <v>9604374470</v>
+        <v>7977724283</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>356</v>
       </c>
       <c r="B127">
-        <v>9920106648</v>
+        <v>7600089665</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B128">
-        <v>8368532448</v>
+        <v>9021783215</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="B129">
-        <v>8826254515</v>
+        <v>7506037068</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>357</v>
       </c>
       <c r="B130">
-        <v>7977985421</v>
+        <v>9769218214</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B131">
-        <v>9177419352</v>
+        <v>9619400199</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B132">
-        <v>9136706122</v>
+        <v>9619400199</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>358</v>
       </c>
       <c r="B133">
-        <v>9136706122</v>
+        <v>8879710925</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>117</v>
+        <v>359</v>
       </c>
       <c r="B134">
-        <v>9930374480</v>
+        <v>9892565045</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>118</v>
+        <v>358</v>
       </c>
       <c r="B135">
-        <v>9790915656</v>
+        <v>8879710925</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>358</v>
       </c>
       <c r="B136">
-        <v>8928271560</v>
+        <v>8879710925</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="B137">
-        <v>8860432961</v>
+        <v>9969877522</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>119</v>
+        <v>361</v>
       </c>
       <c r="B138">
-        <v>8928271560</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>121</v>
+        <v>362</v>
       </c>
       <c r="B139">
-        <v>9566107351</v>
+        <v>9967782680</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>122</v>
+        <v>363</v>
       </c>
       <c r="B140">
-        <v>8600555699</v>
+        <v>9619096066</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="B141">
-        <v>9819826246</v>
+        <v>9321027763</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B142">
-        <v>9136706122</v>
+        <v>9930095590</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="B143">
-        <v>9820186744</v>
+        <v>7021154909</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>124</v>
+        <v>366</v>
       </c>
       <c r="B144">
-        <v>9820186744</v>
+        <v>7715045381</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="B145">
-        <v>9004503132</v>
+        <v>9819994527</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="B146">
-        <v>9004503132</v>
+        <v>8879074266</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>126</v>
+        <v>369</v>
       </c>
       <c r="B147">
-        <v>8939672290</v>
+        <v>7977257792</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>126</v>
+        <v>370</v>
       </c>
       <c r="B148">
-        <v>8939672290</v>
+        <v>9004651684</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>127</v>
+        <v>371</v>
       </c>
       <c r="B149">
-        <v>9599347501</v>
+        <v>9967414107</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>372</v>
       </c>
       <c r="B150">
-        <v>9899471626</v>
+        <v>9326859632</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>128</v>
+        <v>373</v>
       </c>
       <c r="B151">
-        <v>9819032456</v>
+        <v>9004249569</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>374</v>
       </c>
       <c r="B152">
-        <v>9867791780</v>
+        <v>8850576520</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="B153">
-        <v>9890497660</v>
+        <v>8082550808</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="B154">
-        <v>9321432024</v>
+        <v>9833163287</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>132</v>
+        <v>377</v>
       </c>
       <c r="B155">
-        <v>9833510450</v>
+        <v>7738584892</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="B156">
-        <v>9082633855</v>
+        <v>7021807477</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="B157">
-        <v>8652275666</v>
+        <v>9969004969</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>135</v>
+        <v>380</v>
       </c>
       <c r="B158">
-        <v>7021546818</v>
+        <v>8080071918</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="B159">
-        <v>9167553949</v>
+        <v>8669104877</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>137</v>
+        <v>382</v>
       </c>
       <c r="B160">
-        <v>9149036209</v>
+        <v>8850570228</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>138</v>
+        <v>383</v>
       </c>
       <c r="B161">
-        <v>9953456995</v>
+        <v>6264850827</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>139</v>
+        <v>383</v>
       </c>
       <c r="B162">
-        <v>9820262631</v>
+        <v>6264850827</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>140</v>
+        <v>384</v>
       </c>
       <c r="B163">
-        <v>9820795501</v>
+        <v>8454981013</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B164">
-        <v>9011055371</v>
+        <v>9004179170</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="B165">
-        <v>9561102181</v>
+        <v>9326393593</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>143</v>
+        <v>386</v>
       </c>
       <c r="B166">
-        <v>9819052196</v>
+        <v>7208617121</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>144</v>
+        <v>387</v>
       </c>
       <c r="B167">
-        <v>9967792829</v>
+        <v>9833350989</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>145</v>
+        <v>388</v>
       </c>
       <c r="B168">
-        <v>8652275666</v>
+        <v>8097936081</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>146</v>
+        <v>389</v>
       </c>
       <c r="B169">
-        <v>8652270666</v>
+        <v>9819113226</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="B170">
-        <v>7728095633</v>
+        <v>8828085442</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="B171">
-        <v>8097084551</v>
+        <v>9820258657</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="B172">
-        <v>9710660603</v>
+        <v>8452925289</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>150</v>
+        <v>392</v>
       </c>
       <c r="B173">
-        <v>8106669966</v>
+        <v>9372336413</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>151</v>
+        <v>393</v>
       </c>
       <c r="B174">
-        <v>9833934232</v>
+        <v>9167729787</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>152</v>
+        <v>394</v>
       </c>
       <c r="B175">
-        <v>9833837169</v>
+        <v>7972177357</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>153</v>
+        <v>395</v>
       </c>
       <c r="B176">
-        <v>9820507676</v>
+        <v>8291462836</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>154</v>
+        <v>396</v>
       </c>
       <c r="B177">
-        <v>9820721410</v>
+        <v>8828049828</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>124</v>
+        <v>397</v>
       </c>
       <c r="B178">
-        <v>9820186744</v>
+        <v>9820165102</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="B179">
-        <v>9820186744</v>
+        <v>9773331423</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>155</v>
+        <v>398</v>
       </c>
       <c r="B180">
-        <v>7506907585</v>
+        <v>9386834017</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>155</v>
+        <v>399</v>
       </c>
       <c r="B181">
-        <v>7506907585</v>
+        <v>8879318169</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>156</v>
+        <v>400</v>
       </c>
       <c r="B182">
-        <v>9082416001</v>
+        <v>9892774014</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>157</v>
+        <v>401</v>
       </c>
       <c r="B183">
-        <v>7021019161</v>
+        <v>9222006003</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>144</v>
+        <v>402</v>
       </c>
       <c r="B184">
-        <v>9967792829</v>
+        <v>9987194804</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B185">
-        <v>7977145358</v>
+        <v>9833510450</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>159</v>
+        <v>403</v>
       </c>
       <c r="B186">
-        <v>8356821320</v>
+        <v>9619924240</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>160</v>
+        <v>404</v>
       </c>
       <c r="B187">
-        <v>9987214954</v>
+        <v>9820929225</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>161</v>
+        <v>405</v>
       </c>
       <c r="B188">
-        <v>9930951031</v>
+        <v>9331018474</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="B189">
-        <v>7387425832</v>
+        <v>9820099362</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>163</v>
+        <v>407</v>
       </c>
       <c r="B190">
-        <v>9833556777</v>
+        <v>8082097705</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>164</v>
+        <v>408</v>
       </c>
       <c r="B191">
-        <v>8248161357</v>
+        <v>9326188712</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>165</v>
+        <v>409</v>
       </c>
       <c r="B192">
-        <v>9819032325</v>
+        <v>9820595991</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="B193">
-        <v>9833156022</v>
+        <v>9870458967</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>167</v>
+        <v>411</v>
       </c>
       <c r="B194">
-        <v>9820602288</v>
+        <v>9404176610</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>168</v>
+        <v>412</v>
       </c>
       <c r="B195">
-        <v>9321511042</v>
+        <v>9321569648</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>169</v>
+        <v>413</v>
       </c>
       <c r="B196">
-        <v>9912934202</v>
+        <v>9136883411</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
       <c r="B197">
-        <v>9769459690</v>
+        <v>9821463399</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>170</v>
+        <v>415</v>
       </c>
       <c r="B198">
-        <v>9962002563</v>
+        <v>9820076506</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>171</v>
+        <v>416</v>
       </c>
       <c r="B199">
-        <v>8693060355</v>
+        <v>9004284848</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>3</v>
+        <v>417</v>
       </c>
       <c r="B200">
-        <v>9899471626</v>
+        <v>8355882532</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>172</v>
+        <v>418</v>
       </c>
       <c r="B201">
-        <v>9916202245</v>
+        <v>9920808993</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>419</v>
       </c>
       <c r="B202">
-        <v>7303258528</v>
+        <v>8850264515</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>174</v>
+        <v>420</v>
       </c>
       <c r="B203">
-        <v>9820929686</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>175</v>
+        <v>421</v>
       </c>
       <c r="B204">
-        <v>8652550479</v>
+        <v>7303344344</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>176</v>
+        <v>422</v>
       </c>
       <c r="B205">
-        <v>9833194369</v>
+        <v>9594213950</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>177</v>
+        <v>420</v>
       </c>
       <c r="B206">
-        <v>9072205214</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>178</v>
+        <v>420</v>
       </c>
       <c r="B207">
-        <v>8451004728</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>179</v>
+        <v>420</v>
       </c>
       <c r="B208">
-        <v>7045758212</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="B209">
-        <v>9820957903</v>
+        <v>9619120512</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>181</v>
+        <v>423</v>
       </c>
       <c r="B210">
-        <v>8552960534</v>
+        <v>9619120512</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>182</v>
+        <v>424</v>
       </c>
       <c r="B211">
-        <v>8451816579</v>
+        <v>8169742996</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>183</v>
+        <v>425</v>
       </c>
       <c r="B212">
-        <v>9595555222</v>
+        <v>8657323349</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>184</v>
+        <v>426</v>
       </c>
       <c r="B213">
-        <v>8792609233</v>
+        <v>9833630108</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>56</v>
+        <v>427</v>
       </c>
       <c r="B214">
-        <v>9962551828</v>
+        <v>7021101748</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>185</v>
+        <v>428</v>
       </c>
       <c r="B215">
-        <v>9886130891</v>
+        <v>9833508853</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>186</v>
+        <v>396</v>
       </c>
       <c r="B216">
-        <v>9742659462</v>
+        <v>9233902775</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>187</v>
+        <v>429</v>
       </c>
       <c r="B217">
-        <v>9945794472</v>
+        <v>7045712010</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>188</v>
+        <v>430</v>
       </c>
       <c r="B218">
-        <v>8128668021</v>
+        <v>9136315168</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>189</v>
+        <v>431</v>
       </c>
       <c r="B219">
-        <v>9166982333</v>
+        <v>7715947157</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>190</v>
+        <v>432</v>
       </c>
       <c r="B220">
-        <v>8369325934</v>
+        <v>9619388760</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>191</v>
+        <v>433</v>
       </c>
       <c r="B221">
-        <v>9167308720</v>
+        <v>9421183831</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>192</v>
+        <v>434</v>
       </c>
       <c r="B222">
-        <v>9867338598</v>
+        <v>9769034708</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>193</v>
+        <v>435</v>
       </c>
       <c r="B223">
-        <v>7012280263</v>
+        <v>7506064545</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>194</v>
+        <v>436</v>
       </c>
       <c r="B224">
-        <v>7005119845</v>
+        <v>9820930381</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>195</v>
+        <v>437</v>
       </c>
       <c r="B225">
-        <v>8425996969</v>
+        <v>9930530586</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>196</v>
+        <v>438</v>
       </c>
       <c r="B226">
-        <v>8822132577</v>
+        <v>9769054345</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>197</v>
+        <v>439</v>
       </c>
       <c r="B227">
-        <v>7827050737</v>
+        <v>9870569339</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>198</v>
+        <v>440</v>
       </c>
       <c r="B228">
-        <v>8200220324</v>
+        <v>8879957245</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>62</v>
+        <v>441</v>
       </c>
       <c r="B229">
-        <v>9028233523</v>
+        <v>9970041798</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>199</v>
+        <v>442</v>
       </c>
       <c r="B230">
-        <v>9820554885</v>
+        <v>9920829510</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>200</v>
+        <v>443</v>
       </c>
       <c r="B231">
-        <v>9987735818</v>
+        <v>9167970195</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>201</v>
+        <v>444</v>
       </c>
       <c r="B232">
-        <v>9769801996</v>
+        <v>9876104376</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>202</v>
+        <v>445</v>
       </c>
       <c r="B233">
-        <v>9674457446</v>
+        <v>9167967009</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="B234">
-        <v>8828870458</v>
+        <v>7977253838</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>203</v>
+        <v>446</v>
       </c>
       <c r="B235">
-        <v>9920695648</v>
+        <v>9321641012</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B236">
-        <v>9964294283</v>
+        <v>9867430108</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>205</v>
+        <v>447</v>
       </c>
       <c r="B237">
-        <v>9819183383</v>
+        <v>9372002278</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>206</v>
+        <v>448</v>
       </c>
       <c r="B238">
-        <v>8802317310</v>
+        <v>8591713181</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="B239">
-        <v>8281069149</v>
+        <v>9819223822</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>208</v>
+        <v>450</v>
       </c>
       <c r="B240">
-        <v>8891111205</v>
+        <v>9324386377</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>209</v>
+        <v>450</v>
       </c>
       <c r="B241">
-        <v>8838078495</v>
+        <v>9324386377</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>208</v>
+        <v>451</v>
       </c>
       <c r="B242">
-        <v>8891111205</v>
+        <v>9819612890</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>210</v>
+        <v>452</v>
       </c>
       <c r="B243">
-        <v>9867430108</v>
+        <v>9987140072</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>211</v>
+        <v>453</v>
       </c>
       <c r="B244">
-        <v>8974249714</v>
+        <v>8976600645</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>148</v>
+        <v>454</v>
       </c>
       <c r="B245">
-        <v>9567013014</v>
+        <v>9987386122</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>212</v>
+        <v>455</v>
       </c>
       <c r="B246">
-        <v>9664852211</v>
+        <v>9619882826</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="B247">
-        <v>9923356253</v>
+        <v>7045840470</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>214</v>
+        <v>457</v>
       </c>
       <c r="B248">
-        <v>9773314239</v>
+        <v>9769806255</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
       <c r="B249">
-        <v>9920308590</v>
+        <v>9076061845</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>216</v>
+        <v>459</v>
       </c>
       <c r="B250">
-        <v>9999898898</v>
+        <v>9029113557</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B251">
-        <v>9899471626</v>
+        <v>7021679365</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>217</v>
+        <v>460</v>
       </c>
       <c r="B252">
-        <v>9987589112</v>
+        <v>7224004660</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>218</v>
+        <v>461</v>
       </c>
       <c r="B253">
-        <v>7989759604</v>
+        <v>9167415422</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>219</v>
+        <v>462</v>
       </c>
       <c r="B254">
-        <v>8341000003</v>
+        <v>8506088080</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>220</v>
+        <v>463</v>
       </c>
       <c r="B255">
-        <v>8552960534</v>
+        <v>7895412610</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>221</v>
+        <v>464</v>
       </c>
       <c r="B256">
-        <v>8588897285</v>
+        <v>9226919368</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>222</v>
+        <v>465</v>
       </c>
       <c r="B257">
-        <v>8082367100</v>
+        <v>7021633756</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>223</v>
+        <v>466</v>
       </c>
       <c r="B258">
-        <v>9619806615</v>
+        <v>8104291159</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="B259">
-        <v>9820820297</v>
+        <v>8082003347</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>224</v>
+        <v>467</v>
       </c>
       <c r="B260">
-        <v>9820820297</v>
+        <v>9967711294</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>225</v>
+        <v>468</v>
       </c>
       <c r="B261">
-        <v>9920799405</v>
+        <v>9136114728</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>226</v>
+        <v>469</v>
       </c>
       <c r="B262">
-        <v>8511207086</v>
+        <v>9762184152</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="B263">
-        <v>9820177357</v>
+        <v>8082659575</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
       <c r="B264">
-        <v>8169088234</v>
+        <v>7439204060</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>229</v>
+        <v>472</v>
       </c>
       <c r="B265">
-        <v>9930279350</v>
+        <v>9004839815</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
       <c r="B266">
-        <v>9021783215</v>
+        <v>9892326615</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>230</v>
+        <v>474</v>
       </c>
       <c r="B267">
-        <v>9953907009</v>
+        <v>8454903845</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>231</v>
+        <v>475</v>
       </c>
       <c r="B268">
-        <v>7276735140</v>
+        <v>9820003415</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>232</v>
+        <v>476</v>
       </c>
       <c r="B269">
-        <v>9833879813</v>
+        <v>9114190177</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>233</v>
+        <v>477</v>
       </c>
       <c r="B270">
-        <v>7900067921</v>
+        <v>8169269512</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>234</v>
+        <v>478</v>
       </c>
       <c r="B271">
-        <v>9078025169</v>
+        <v>8879548954</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>235</v>
+        <v>479</v>
       </c>
       <c r="B272">
-        <v>9833328499</v>
+        <v>9167757640</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>236</v>
+        <v>480</v>
       </c>
       <c r="B273">
-        <v>9558721001</v>
+        <v>9004550066</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>237</v>
+        <v>481</v>
       </c>
       <c r="B274">
-        <v>7506055660</v>
+        <v>9833297735</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>238</v>
+        <v>482</v>
       </c>
       <c r="B275">
-        <v>8779039771</v>
+        <v>9136930032</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>239</v>
+        <v>483</v>
       </c>
       <c r="B276">
-        <v>8484001912</v>
+        <v>9167825566</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>240</v>
+        <v>484</v>
       </c>
       <c r="B277">
-        <v>8779039771</v>
+        <v>8976069544</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>241</v>
+        <v>485</v>
       </c>
       <c r="B278">
-        <v>8850398501</v>
+        <v>9920830086</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>242</v>
+        <v>486</v>
       </c>
       <c r="B279">
-        <v>9600129709</v>
+        <v>9920840003</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>243</v>
+        <v>487</v>
       </c>
       <c r="B280">
-        <v>9040991010</v>
+        <v>9833297735</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>244</v>
+        <v>488</v>
       </c>
       <c r="B281">
-        <v>9820877238</v>
+        <v>8450995425</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>245</v>
+        <v>473</v>
       </c>
       <c r="B282">
-        <v>8860239250</v>
+        <v>9892326615</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="B283">
-        <v>9953641455</v>
+        <v>9819275429</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>247</v>
+        <v>490</v>
       </c>
       <c r="B284">
-        <v>9953907009</v>
+        <v>9321642903</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>248</v>
+        <v>491</v>
       </c>
       <c r="B285">
-        <v>9818377385</v>
+        <v>8072136738</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>249</v>
+        <v>492</v>
       </c>
       <c r="B286">
-        <v>9821512603</v>
+        <v>9619541632</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="B287">
-        <v>8923825140</v>
+        <v>9820258657</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="B288">
-        <v>8450956615</v>
+        <v>8169346167</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>251</v>
+        <v>494</v>
       </c>
       <c r="B289">
-        <v>7020120468</v>
+        <v>8698155594</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>246</v>
+        <v>495</v>
       </c>
       <c r="B290">
-        <v>9875644657</v>
+        <v>7710973127</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>252</v>
+        <v>496</v>
       </c>
       <c r="B291">
-        <v>9983442421</v>
+        <v>7988306605</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>246</v>
+        <v>496</v>
       </c>
       <c r="B292">
-        <v>9854615863</v>
+        <v>7988306605</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>497</v>
+      </c>
+      <c r="B293">
+        <v>8691963498</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>498</v>
+      </c>
+      <c r="B294">
+        <v>9029901209</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>496</v>
+      </c>
+      <c r="B295">
+        <v>7988306605</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>499</v>
+      </c>
+      <c r="B296">
+        <v>9833401017</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>500</v>
+      </c>
+      <c r="B297">
+        <v>8976221578</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>501</v>
+      </c>
+      <c r="B298">
+        <v>9567013014</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>502</v>
+      </c>
+      <c r="B299">
+        <v>9324099139</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>503</v>
+      </c>
+      <c r="B300">
+        <v>9769338343</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>504</v>
+      </c>
+      <c r="B301">
+        <v>9322179537</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>505</v>
+      </c>
+      <c r="B302">
+        <v>9167291980</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>506</v>
+      </c>
+      <c r="B303">
+        <v>8888657868</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>507</v>
+      </c>
+      <c r="B304">
+        <v>9820975961</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>508</v>
+      </c>
+      <c r="B305">
+        <v>8097678023</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>509</v>
+      </c>
+      <c r="B306">
+        <v>9664357976</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>430</v>
+      </c>
+      <c r="B307">
+        <v>7045015540</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>510</v>
+      </c>
+      <c r="B308">
+        <v>9820422197</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>511</v>
+      </c>
+      <c r="B309">
+        <v>8080698454</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>512</v>
+      </c>
+      <c r="B310">
+        <v>9987589112</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>513</v>
+      </c>
+      <c r="B311">
+        <v>9004503132</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>237</v>
+      </c>
+      <c r="B312">
+        <v>7506055660</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>397</v>
+      </c>
+      <c r="B313">
+        <v>9820165102</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>514</v>
+      </c>
+      <c r="B314">
+        <v>9967829244</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>515</v>
+      </c>
+      <c r="B315">
+        <v>9420059303</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>9967008636</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>516</v>
+      </c>
+      <c r="B317">
+        <v>9825249465</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>517</v>
+      </c>
+      <c r="B318">
+        <v>9930229171</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>397</v>
+      </c>
+      <c r="B319">
+        <v>9820165102</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>518</v>
+      </c>
+      <c r="B320">
+        <v>9920850021</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>245</v>
+      </c>
+      <c r="B321">
+        <v>9137099565</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>519</v>
+      </c>
+      <c r="B322">
+        <v>9321531243</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>520</v>
+      </c>
+      <c r="B323">
+        <v>9930229171</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>521</v>
+      </c>
+      <c r="B324">
+        <v>9820263099</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>521</v>
+      </c>
+      <c r="B325">
+        <v>9820263099</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>522</v>
+      </c>
+      <c r="B326">
+        <v>8999124875</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>523</v>
+      </c>
+      <c r="B327">
+        <v>9403625282</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>524</v>
+      </c>
+      <c r="B328">
+        <v>8080731854</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>525</v>
+      </c>
+      <c r="B329">
+        <v>8898915759</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>526</v>
+      </c>
+      <c r="B330">
+        <v>9821723247</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>527</v>
+      </c>
+      <c r="B331">
+        <v>9594714801</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>528</v>
+      </c>
+      <c r="B332">
+        <v>8169976751</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>245</v>
+      </c>
+      <c r="B333">
+        <v>7020120468</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>529</v>
+      </c>
+      <c r="B334">
+        <v>9822460660</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>66</v>
+      </c>
+      <c r="B335">
+        <v>9890115400</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>530</v>
+      </c>
+      <c r="B336">
+        <v>6392907996</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>531</v>
+      </c>
+      <c r="B337">
+        <v>9724404111</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>532</v>
+      </c>
+      <c r="B338">
+        <v>9920950868</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>533</v>
+      </c>
+      <c r="B339">
+        <v>8160080889</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>534</v>
+      </c>
+      <c r="B340">
+        <v>9920407007</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>535</v>
+      </c>
+      <c r="B341">
+        <v>9967736283</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>536</v>
+      </c>
+      <c r="B342">
+        <v>9384066869</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>537</v>
+      </c>
+      <c r="B343">
+        <v>8143238799</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>538</v>
+      </c>
+      <c r="B344">
+        <v>9819517442</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>539</v>
+      </c>
+      <c r="B345">
+        <v>9930371443</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>540</v>
+      </c>
+      <c r="B346">
+        <v>9136530312</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>540</v>
+      </c>
+      <c r="B347">
+        <v>9136530312</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>540</v>
+      </c>
+      <c r="B348">
+        <v>9136530312</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>541</v>
+      </c>
+      <c r="B349">
+        <v>9586982464</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>542</v>
+      </c>
+      <c r="B350">
+        <v>9038738968</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>543</v>
+      </c>
+      <c r="B351">
+        <v>9867325288</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>544</v>
+      </c>
+      <c r="B352">
+        <v>9594856857</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>545</v>
+      </c>
+      <c r="B353">
+        <v>8698711080</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>2</v>
+      </c>
+      <c r="B354">
+        <v>8828870458</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>3</v>
+      </c>
+      <c r="B355">
+        <v>9899471626</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356">
+        <v>9021783215</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357">
+        <v>9701998419</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358">
+        <v>8097305089</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359">
+        <v>8097305089</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360">
+        <v>9920555036</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>8</v>
+      </c>
+      <c r="B361">
+        <v>9773219438</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362">
+        <v>9653786661</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363">
+        <v>8652270666</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>11</v>
+      </c>
+      <c r="B364">
+        <v>9619118248</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>12</v>
+      </c>
+      <c r="B365">
+        <v>7710047897</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>13</v>
+      </c>
+      <c r="B366">
+        <v>9930612898</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>13</v>
+      </c>
+      <c r="B367">
+        <v>9930612898</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>14</v>
+      </c>
+      <c r="B368">
+        <v>7977593094</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>15</v>
+      </c>
+      <c r="B369">
+        <v>9371338679</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>16</v>
+      </c>
+      <c r="B370">
+        <v>9920300903</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>17</v>
+      </c>
+      <c r="B371">
+        <v>9527959565</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>18</v>
+      </c>
+      <c r="B372">
+        <v>8928606139</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>19</v>
+      </c>
+      <c r="B373">
+        <v>8879092962</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>20</v>
+      </c>
+      <c r="B374">
+        <v>8285223344</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>21</v>
+      </c>
+      <c r="B375">
+        <v>9967792829</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>22</v>
+      </c>
+      <c r="B376">
+        <v>9096651692</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>23</v>
+      </c>
+      <c r="B377">
+        <v>9867348857</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>24</v>
+      </c>
+      <c r="B378">
+        <v>6009236312</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>24</v>
+      </c>
+      <c r="B379">
+        <v>6009236312</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>25</v>
+      </c>
+      <c r="B380">
+        <v>9612464595</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>26</v>
+      </c>
+      <c r="B381">
+        <v>9967232595</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>27</v>
+      </c>
+      <c r="B382">
+        <v>7710994260</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>28</v>
+      </c>
+      <c r="B383">
+        <v>8605437788</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>29</v>
+      </c>
+      <c r="B384">
+        <v>9820281589</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>30</v>
+      </c>
+      <c r="B385">
+        <v>9911346303</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>31</v>
+      </c>
+      <c r="B386">
+        <v>9820451303</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>32</v>
+      </c>
+      <c r="B387">
+        <v>7219896663</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>33</v>
+      </c>
+      <c r="B388">
+        <v>7666416488</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>34</v>
+      </c>
+      <c r="B389">
+        <v>9820363646</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>35</v>
+      </c>
+      <c r="B390">
+        <v>9372365043</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>36</v>
+      </c>
+      <c r="B391">
+        <v>9833117443</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>37</v>
+      </c>
+      <c r="B392">
+        <v>8450956615</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>38</v>
+      </c>
+      <c r="B393">
+        <v>9326065876</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>2</v>
+      </c>
+      <c r="B394">
+        <v>8828870458</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>39</v>
+      </c>
+      <c r="B395">
+        <v>9330351007</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>40</v>
+      </c>
+      <c r="B396">
+        <v>9819216439</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>41</v>
+      </c>
+      <c r="B397">
+        <v>9326772320</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>42</v>
+      </c>
+      <c r="B398">
+        <v>8698155594</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>43</v>
+      </c>
+      <c r="B399">
+        <v>9810252312</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>44</v>
+      </c>
+      <c r="B400">
+        <v>9820512543</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>45</v>
+      </c>
+      <c r="B401">
+        <v>8879498384</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>46</v>
+      </c>
+      <c r="B402">
+        <v>7977201625</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>47</v>
+      </c>
+      <c r="B403">
+        <v>9833993966</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>47</v>
+      </c>
+      <c r="B404">
+        <v>9833993966</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>47</v>
+      </c>
+      <c r="B405">
+        <v>9833993966</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>47</v>
+      </c>
+      <c r="B406">
+        <v>9833993966</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>48</v>
+      </c>
+      <c r="B407">
+        <v>9769459690</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>48</v>
+      </c>
+      <c r="B408">
+        <v>9769459690</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>49</v>
+      </c>
+      <c r="B409">
+        <v>8693003000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>50</v>
+      </c>
+      <c r="B410">
+        <v>9619192575</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>51</v>
+      </c>
+      <c r="B411">
+        <v>9025099113</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>51</v>
+      </c>
+      <c r="B412">
+        <v>9025099113</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>52</v>
+      </c>
+      <c r="B413">
+        <v>9821576884</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>53</v>
+      </c>
+      <c r="B414">
+        <v>9022106920</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>54</v>
+      </c>
+      <c r="B415">
+        <v>9511774841</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>55</v>
+      </c>
+      <c r="B416">
+        <v>9820721410</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>56</v>
+      </c>
+      <c r="B417">
+        <v>9962551828</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>57</v>
+      </c>
+      <c r="B418">
+        <v>9321445711</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>58</v>
+      </c>
+      <c r="B419">
+        <v>8097280360</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>59</v>
+      </c>
+      <c r="B420">
+        <v>8446910423</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>60</v>
+      </c>
+      <c r="B421">
+        <v>7559360478</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>61</v>
+      </c>
+      <c r="B422">
+        <v>8999372024</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>62</v>
+      </c>
+      <c r="B423">
+        <v>9028233523</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>63</v>
+      </c>
+      <c r="B424">
+        <v>9920563414</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>64</v>
+      </c>
+      <c r="B425">
+        <v>9689444578</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>65</v>
+      </c>
+      <c r="B426">
+        <v>7776858986</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>66</v>
+      </c>
+      <c r="B427">
+        <v>9890115400</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>67</v>
+      </c>
+      <c r="B428">
+        <v>9403839799</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>68</v>
+      </c>
+      <c r="B429">
+        <v>9689444578</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>69</v>
+      </c>
+      <c r="B430">
+        <v>7620587795</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>70</v>
+      </c>
+      <c r="B431">
+        <v>9657960484</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>71</v>
+      </c>
+      <c r="B432">
+        <v>9769217536</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>71</v>
+      </c>
+      <c r="B433">
+        <v>9820258657</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>72</v>
+      </c>
+      <c r="B434">
+        <v>8693834003</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>73</v>
+      </c>
+      <c r="B435">
+        <v>7021516932</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>74</v>
+      </c>
+      <c r="B436">
+        <v>9673636981</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>75</v>
+      </c>
+      <c r="B437">
+        <v>8669104877</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>75</v>
+      </c>
+      <c r="B438">
+        <v>8669104877</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>76</v>
+      </c>
+      <c r="B439">
+        <v>8169616067</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>77</v>
+      </c>
+      <c r="B440">
+        <v>8097037176</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>78</v>
+      </c>
+      <c r="B441">
+        <v>6026868805</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>78</v>
+      </c>
+      <c r="B442">
+        <v>6026868805</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>79</v>
+      </c>
+      <c r="B443">
+        <v>9321370806</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>80</v>
+      </c>
+      <c r="B444">
+        <v>9833250497</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>81</v>
+      </c>
+      <c r="B445">
+        <v>6364650953</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>82</v>
+      </c>
+      <c r="B446">
+        <v>9969261694</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>83</v>
+      </c>
+      <c r="B447">
+        <v>9819230083</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>84</v>
+      </c>
+      <c r="B448">
+        <v>9820126146</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>85</v>
+      </c>
+      <c r="B449">
+        <v>9871644466</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>86</v>
+      </c>
+      <c r="B450">
+        <v>7506285989</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>87</v>
+      </c>
+      <c r="B451">
+        <v>9757168723</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>88</v>
+      </c>
+      <c r="B452">
+        <v>8657932932</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>89</v>
+      </c>
+      <c r="B453">
+        <v>9321772075</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>89</v>
+      </c>
+      <c r="B454">
+        <v>9321772075</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>90</v>
+      </c>
+      <c r="B455">
+        <v>9836295855</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>91</v>
+      </c>
+      <c r="B456">
+        <v>9920080801</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>92</v>
+      </c>
+      <c r="B457">
+        <v>9004574044</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>91</v>
+      </c>
+      <c r="B458">
+        <v>9920080801</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>91</v>
+      </c>
+      <c r="B459">
+        <v>9920080801</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>93</v>
+      </c>
+      <c r="B460">
+        <v>9699402060</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>94</v>
+      </c>
+      <c r="B461">
+        <v>9167758995</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>95</v>
+      </c>
+      <c r="B462">
+        <v>8484031607</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>96</v>
+      </c>
+      <c r="B463">
+        <v>8097852203</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>97</v>
+      </c>
+      <c r="B464">
+        <v>9324618465</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>98</v>
+      </c>
+      <c r="B465">
+        <v>9606853332</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>98</v>
+      </c>
+      <c r="B466">
+        <v>9606853332</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>49</v>
+      </c>
+      <c r="B467">
+        <v>8693003000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>99</v>
+      </c>
+      <c r="B468">
+        <v>7400208167</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>100</v>
+      </c>
+      <c r="B469">
+        <v>8976424429</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>101</v>
+      </c>
+      <c r="B470">
+        <v>7558573207</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>102</v>
+      </c>
+      <c r="B471">
+        <v>9769725949</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>103</v>
+      </c>
+      <c r="B472">
+        <v>9619470025</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>104</v>
+      </c>
+      <c r="B473">
+        <v>8879071063</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>105</v>
+      </c>
+      <c r="B474">
+        <v>9619318643</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>106</v>
+      </c>
+      <c r="B475">
+        <v>9999048026</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>107</v>
+      </c>
+      <c r="B476">
+        <v>9820837271</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>108</v>
+      </c>
+      <c r="B477">
+        <v>7666416488</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>109</v>
+      </c>
+      <c r="B478">
+        <v>9930110800</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>110</v>
+      </c>
+      <c r="B479">
+        <v>9604374470</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>111</v>
+      </c>
+      <c r="B480">
+        <v>9920106648</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>546</v>
+      </c>
+      <c r="B481">
+        <v>122163284</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>547</v>
+      </c>
+      <c r="B482">
+        <v>132024682</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>112</v>
+      </c>
+      <c r="B483">
+        <v>8368532448</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>113</v>
+      </c>
+      <c r="B484">
+        <v>8826254515</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>114</v>
+      </c>
+      <c r="B485">
+        <v>7977985421</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>115</v>
+      </c>
+      <c r="B486">
+        <v>9177419352</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>116</v>
+      </c>
+      <c r="B487">
+        <v>9136706122</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>116</v>
+      </c>
+      <c r="B488">
+        <v>9136706122</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>117</v>
+      </c>
+      <c r="B489">
+        <v>9930374480</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>118</v>
+      </c>
+      <c r="B490">
+        <v>9790915656</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>119</v>
+      </c>
+      <c r="B491">
+        <v>8928271560</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>120</v>
+      </c>
+      <c r="B492">
+        <v>8860432961</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>119</v>
+      </c>
+      <c r="B493">
+        <v>8928271560</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>121</v>
+      </c>
+      <c r="B494">
+        <v>9566107351</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>122</v>
+      </c>
+      <c r="B495">
+        <v>8600555699</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>123</v>
+      </c>
+      <c r="B496">
+        <v>9819826246</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>116</v>
+      </c>
+      <c r="B497">
+        <v>9136706122</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>124</v>
+      </c>
+      <c r="B498">
+        <v>9820186744</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>124</v>
+      </c>
+      <c r="B499">
+        <v>9820186744</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>125</v>
+      </c>
+      <c r="B500">
+        <v>9004503132</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>125</v>
+      </c>
+      <c r="B501">
+        <v>9004503132</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>126</v>
+      </c>
+      <c r="B502">
+        <v>8939672290</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>126</v>
+      </c>
+      <c r="B503">
+        <v>8939672290</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>127</v>
+      </c>
+      <c r="B504">
+        <v>9599347501</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>3</v>
+      </c>
+      <c r="B505">
+        <v>9899471626</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>128</v>
+      </c>
+      <c r="B506">
+        <v>9819032456</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>129</v>
+      </c>
+      <c r="B507">
+        <v>9867791780</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>130</v>
+      </c>
+      <c r="B508">
+        <v>9890497660</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>131</v>
+      </c>
+      <c r="B509">
+        <v>9321432024</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>132</v>
+      </c>
+      <c r="B510">
+        <v>9833510450</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>133</v>
+      </c>
+      <c r="B511">
+        <v>9082633855</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>134</v>
+      </c>
+      <c r="B512">
+        <v>8652275666</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>135</v>
+      </c>
+      <c r="B513">
+        <v>7021546818</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>136</v>
+      </c>
+      <c r="B514">
+        <v>9167553949</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>137</v>
+      </c>
+      <c r="B515">
+        <v>9149036209</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>138</v>
+      </c>
+      <c r="B516">
+        <v>9953456995</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>548</v>
+      </c>
+      <c r="B517">
+        <v>829566636</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>139</v>
+      </c>
+      <c r="B518">
+        <v>9820262631</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>140</v>
+      </c>
+      <c r="B519">
+        <v>9820795501</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>141</v>
+      </c>
+      <c r="B520">
+        <v>9011055371</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>142</v>
+      </c>
+      <c r="B521">
+        <v>9561102181</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>143</v>
+      </c>
+      <c r="B522">
+        <v>9819052196</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>144</v>
+      </c>
+      <c r="B523">
+        <v>9967792829</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>145</v>
+      </c>
+      <c r="B524">
+        <v>8652275666</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>146</v>
+      </c>
+      <c r="B525">
+        <v>8652270666</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>147</v>
+      </c>
+      <c r="B526">
+        <v>7728095633</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>148</v>
+      </c>
+      <c r="B527">
+        <v>8097084551</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>149</v>
+      </c>
+      <c r="B528">
+        <v>9710660603</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>150</v>
+      </c>
+      <c r="B529">
+        <v>8106669966</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>151</v>
+      </c>
+      <c r="B530">
+        <v>9833934232</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>152</v>
+      </c>
+      <c r="B531">
+        <v>9833837169</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>153</v>
+      </c>
+      <c r="B532">
+        <v>9820507676</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>154</v>
+      </c>
+      <c r="B533">
+        <v>9820721410</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>124</v>
+      </c>
+      <c r="B534">
+        <v>9820186744</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>124</v>
+      </c>
+      <c r="B535">
+        <v>9820186744</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>155</v>
+      </c>
+      <c r="B536">
+        <v>7506907585</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>155</v>
+      </c>
+      <c r="B537">
+        <v>7506907585</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>156</v>
+      </c>
+      <c r="B538">
+        <v>9082416001</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>157</v>
+      </c>
+      <c r="B539">
+        <v>7021019161</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>144</v>
+      </c>
+      <c r="B540">
+        <v>9967792829</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>158</v>
+      </c>
+      <c r="B541">
+        <v>7977145358</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>159</v>
+      </c>
+      <c r="B542">
+        <v>8356821320</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>160</v>
+      </c>
+      <c r="B543">
+        <v>9987214954</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>161</v>
+      </c>
+      <c r="B544">
+        <v>9930951031</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>162</v>
+      </c>
+      <c r="B545">
+        <v>7387425832</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>163</v>
+      </c>
+      <c r="B546">
+        <v>9833556777</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>164</v>
+      </c>
+      <c r="B547">
+        <v>8248161357</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>165</v>
+      </c>
+      <c r="B548">
+        <v>9819032325</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>166</v>
+      </c>
+      <c r="B549">
+        <v>9833156022</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>167</v>
+      </c>
+      <c r="B550">
+        <v>9820602288</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>168</v>
+      </c>
+      <c r="B551">
+        <v>9321511042</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>169</v>
+      </c>
+      <c r="B552">
+        <v>9912934202</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>48</v>
+      </c>
+      <c r="B553">
+        <v>9769459690</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>170</v>
+      </c>
+      <c r="B554">
+        <v>9962002563</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>171</v>
+      </c>
+      <c r="B555">
+        <v>8693060355</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>3</v>
+      </c>
+      <c r="B556">
+        <v>9899471626</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>172</v>
+      </c>
+      <c r="B557">
+        <v>9916202245</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>173</v>
+      </c>
+      <c r="B558">
+        <v>7303258528</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>174</v>
+      </c>
+      <c r="B559">
+        <v>9820929686</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>175</v>
+      </c>
+      <c r="B560">
+        <v>8652550479</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>176</v>
+      </c>
+      <c r="B561">
+        <v>9833194369</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>177</v>
+      </c>
+      <c r="B562">
+        <v>9072205214</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>178</v>
+      </c>
+      <c r="B563">
+        <v>8451004728</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>179</v>
+      </c>
+      <c r="B564">
+        <v>7045758212</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>180</v>
+      </c>
+      <c r="B565">
+        <v>9820957903</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>181</v>
+      </c>
+      <c r="B566">
+        <v>8552960534</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>182</v>
+      </c>
+      <c r="B567">
+        <v>8451816579</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>183</v>
+      </c>
+      <c r="B568">
+        <v>9595555222</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>184</v>
+      </c>
+      <c r="B569">
+        <v>8792609233</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>56</v>
+      </c>
+      <c r="B570">
+        <v>9962551828</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>185</v>
+      </c>
+      <c r="B571">
+        <v>9886130891</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>186</v>
+      </c>
+      <c r="B572">
+        <v>9742659462</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>187</v>
+      </c>
+      <c r="B573">
+        <v>9945794472</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>188</v>
+      </c>
+      <c r="B574">
+        <v>8128668021</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>189</v>
+      </c>
+      <c r="B575">
+        <v>9166982333</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>190</v>
+      </c>
+      <c r="B576">
+        <v>8369325934</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>191</v>
+      </c>
+      <c r="B577">
+        <v>9167308720</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>192</v>
+      </c>
+      <c r="B578">
+        <v>9867338598</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>193</v>
+      </c>
+      <c r="B579">
+        <v>7012280263</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>194</v>
+      </c>
+      <c r="B580">
+        <v>7005119845</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>195</v>
+      </c>
+      <c r="B581">
+        <v>8425996969</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>196</v>
+      </c>
+      <c r="B582">
+        <v>8822132577</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>197</v>
+      </c>
+      <c r="B583">
+        <v>7827050737</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>198</v>
+      </c>
+      <c r="B584">
+        <v>8200220324</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>62</v>
+      </c>
+      <c r="B585">
+        <v>9028233523</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>199</v>
+      </c>
+      <c r="B586">
+        <v>9820554885</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>200</v>
+      </c>
+      <c r="B587">
+        <v>9987735818</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>201</v>
+      </c>
+      <c r="B588">
+        <v>9769801996</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>202</v>
+      </c>
+      <c r="B589">
+        <v>9674457446</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>2</v>
+      </c>
+      <c r="B590">
+        <v>8828870458</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>203</v>
+      </c>
+      <c r="B591">
+        <v>9920695648</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>204</v>
+      </c>
+      <c r="B592">
+        <v>9964294283</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>205</v>
+      </c>
+      <c r="B593">
+        <v>9819183383</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>206</v>
+      </c>
+      <c r="B594">
+        <v>8802317310</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>207</v>
+      </c>
+      <c r="B595">
+        <v>8281069149</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>208</v>
+      </c>
+      <c r="B596">
+        <v>8891111205</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>209</v>
+      </c>
+      <c r="B597">
+        <v>8838078495</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>208</v>
+      </c>
+      <c r="B598">
+        <v>8891111205</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>210</v>
+      </c>
+      <c r="B599">
+        <v>9867430108</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>211</v>
+      </c>
+      <c r="B600">
+        <v>8974249714</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>148</v>
+      </c>
+      <c r="B601">
+        <v>9567013014</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>212</v>
+      </c>
+      <c r="B602">
+        <v>9664852211</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>213</v>
+      </c>
+      <c r="B603">
+        <v>9923356253</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>214</v>
+      </c>
+      <c r="B604">
+        <v>9773314239</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>215</v>
+      </c>
+      <c r="B605">
+        <v>9920308590</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>216</v>
+      </c>
+      <c r="B606">
+        <v>9999898898</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>3</v>
+      </c>
+      <c r="B607">
+        <v>9899471626</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>217</v>
+      </c>
+      <c r="B608">
+        <v>9987589112</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>218</v>
+      </c>
+      <c r="B609">
+        <v>7989759604</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>219</v>
+      </c>
+      <c r="B610">
+        <v>8341000003</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>220</v>
+      </c>
+      <c r="B611">
+        <v>8552960534</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>221</v>
+      </c>
+      <c r="B612">
+        <v>8588897285</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>222</v>
+      </c>
+      <c r="B613">
+        <v>8082367100</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>223</v>
+      </c>
+      <c r="B614">
+        <v>9619806615</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>224</v>
+      </c>
+      <c r="B615">
+        <v>9820820297</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>224</v>
+      </c>
+      <c r="B616">
+        <v>9820820297</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>225</v>
+      </c>
+      <c r="B617">
+        <v>9920799405</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>226</v>
+      </c>
+      <c r="B618">
+        <v>8511207086</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>227</v>
+      </c>
+      <c r="B619">
+        <v>9820177357</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>228</v>
+      </c>
+      <c r="B620">
+        <v>8169088234</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>229</v>
+      </c>
+      <c r="B621">
+        <v>9930279350</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>4</v>
+      </c>
+      <c r="B622">
+        <v>9021783215</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>230</v>
+      </c>
+      <c r="B623">
+        <v>9953907009</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>231</v>
+      </c>
+      <c r="B624">
+        <v>7276735140</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>232</v>
+      </c>
+      <c r="B625">
+        <v>9833879813</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>233</v>
+      </c>
+      <c r="B626">
+        <v>7900067921</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>234</v>
+      </c>
+      <c r="B627">
+        <v>9078025169</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>235</v>
+      </c>
+      <c r="B628">
+        <v>9833328499</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>236</v>
+      </c>
+      <c r="B629">
+        <v>9558721001</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>237</v>
+      </c>
+      <c r="B630">
+        <v>7506055660</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>238</v>
+      </c>
+      <c r="B631">
+        <v>8779039771</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>239</v>
+      </c>
+      <c r="B632">
+        <v>8484001912</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>240</v>
+      </c>
+      <c r="B633">
+        <v>8779039771</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>241</v>
+      </c>
+      <c r="B634">
+        <v>8850398501</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>242</v>
+      </c>
+      <c r="B635">
+        <v>9600129709</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>243</v>
+      </c>
+      <c r="B636">
+        <v>9040991010</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>244</v>
+      </c>
+      <c r="B637">
+        <v>9820877238</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="806">
   <si>
     <t>First Name</t>
   </si>
@@ -1666,6 +1666,777 @@
   </si>
   <si>
     <t>Nuttapong Hoowong</t>
+  </si>
+  <si>
+    <t>Aaddit</t>
+  </si>
+  <si>
+    <t>Aagam</t>
+  </si>
+  <si>
+    <t>Aahaan Ali</t>
+  </si>
+  <si>
+    <t>Aarav Shrivastava</t>
+  </si>
+  <si>
+    <t>Aayush Ram</t>
+  </si>
+  <si>
+    <t>Aayush Singh</t>
+  </si>
+  <si>
+    <t>Aayushi</t>
+  </si>
+  <si>
+    <t>Abel Thomas</t>
+  </si>
+  <si>
+    <t>Abhishek Paul</t>
+  </si>
+  <si>
+    <t>Abhishek Sahu</t>
+  </si>
+  <si>
+    <t>Abhishek Verma</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Aditya chithrasen</t>
+  </si>
+  <si>
+    <t>Aditya Dandekar</t>
+  </si>
+  <si>
+    <t>Aditya menon</t>
+  </si>
+  <si>
+    <t>Aditya Sule</t>
+  </si>
+  <si>
+    <t>Aditya Thomas Jacob</t>
+  </si>
+  <si>
+    <t>Aditya V Popat</t>
+  </si>
+  <si>
+    <t>Adley Almeida</t>
+  </si>
+  <si>
+    <t>Akash Choudhary</t>
+  </si>
+  <si>
+    <t>Akbar Sidhique Np</t>
+  </si>
+  <si>
+    <t>Akhil Shetty</t>
+  </si>
+  <si>
+    <t>Akshay Kasurde</t>
+  </si>
+  <si>
+    <t>Alechris Denis</t>
+  </si>
+  <si>
+    <t>Ali Asghar Karmali</t>
+  </si>
+  <si>
+    <t>Alpa</t>
+  </si>
+  <si>
+    <t>Alston Pereira</t>
+  </si>
+  <si>
+    <t>Amaan</t>
+  </si>
+  <si>
+    <t>Anand Cv</t>
+  </si>
+  <si>
+    <t>Anand Manoj</t>
+  </si>
+  <si>
+    <t>Ananya neel mani</t>
+  </si>
+  <si>
+    <t>Aniruddh Chendra</t>
+  </si>
+  <si>
+    <t>Aniruddha</t>
+  </si>
+  <si>
+    <t>Anjna Nichani</t>
+  </si>
+  <si>
+    <t>Ankita p khot</t>
+  </si>
+  <si>
+    <t>Ankita Priyank Khot</t>
+  </si>
+  <si>
+    <t>Anthony Allen Dharmaratnam</t>
+  </si>
+  <si>
+    <t>Anuj Jakhotia</t>
+  </si>
+  <si>
+    <t>Anupam Arun Mishra</t>
+  </si>
+  <si>
+    <t>Apoorva Naivedyam</t>
+  </si>
+  <si>
+    <t>Arpit Verma</t>
+  </si>
+  <si>
+    <t>Arsheen Kanadia</t>
+  </si>
+  <si>
+    <t>Arunabh Mazumder</t>
+  </si>
+  <si>
+    <t>Aryan Gurram</t>
+  </si>
+  <si>
+    <t>Ashish Wadhaval</t>
+  </si>
+  <si>
+    <t>Ashna</t>
+  </si>
+  <si>
+    <t>Ashutosh</t>
+  </si>
+  <si>
+    <t>Atharva Joshi</t>
+  </si>
+  <si>
+    <t>ATHARVA PRIYANK KHOT</t>
+  </si>
+  <si>
+    <t>Ayush Dilip</t>
+  </si>
+  <si>
+    <t>Ayush</t>
+  </si>
+  <si>
+    <t>Ayush vyas</t>
+  </si>
+  <si>
+    <t>Berwyn Dmello</t>
+  </si>
+  <si>
+    <t>Bharat Bansal</t>
+  </si>
+  <si>
+    <t>Bhavya</t>
+  </si>
+  <si>
+    <t>Bindusar</t>
+  </si>
+  <si>
+    <t>Bipin Patta</t>
+  </si>
+  <si>
+    <t>Bosco Rodrigues</t>
+  </si>
+  <si>
+    <t>Brevin</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Celestin</t>
+  </si>
+  <si>
+    <t>Cerullo</t>
+  </si>
+  <si>
+    <t>Chaitanya nail</t>
+  </si>
+  <si>
+    <t>Chintan Gala</t>
+  </si>
+  <si>
+    <t>Chiren</t>
+  </si>
+  <si>
+    <t>Dakkshesh Kaul</t>
+  </si>
+  <si>
+    <t>Daksh</t>
+  </si>
+  <si>
+    <t>Devashish Sarang</t>
+  </si>
+  <si>
+    <t>Deveshi Kumar</t>
+  </si>
+  <si>
+    <t>Devv</t>
+  </si>
+  <si>
+    <t>Dhavit Vaghela</t>
+  </si>
+  <si>
+    <t>Dhiman Jain</t>
+  </si>
+  <si>
+    <t>Dhruti Goshar</t>
+  </si>
+  <si>
+    <t>Dhruv Grover</t>
+  </si>
+  <si>
+    <t>Dhruv Kaluvala</t>
+  </si>
+  <si>
+    <t>Dhruv Pujari</t>
+  </si>
+  <si>
+    <t>DINESH PUJARE</t>
+  </si>
+  <si>
+    <t>Dipankar Sharrma</t>
+  </si>
+  <si>
+    <t>Dishank Hate</t>
+  </si>
+  <si>
+    <t>Divyansh Mehta</t>
+  </si>
+  <si>
+    <t>Drihopon</t>
+  </si>
+  <si>
+    <t>Durgesh Ubare</t>
+  </si>
+  <si>
+    <t>Dwayne Dias</t>
+  </si>
+  <si>
+    <t>Dylan Fernandes</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Ethan Paul</t>
+  </si>
+  <si>
+    <t>Fusan</t>
+  </si>
+  <si>
+    <t>Ganesh shelke</t>
+  </si>
+  <si>
+    <t>Gautam Sunder</t>
+  </si>
+  <si>
+    <t>Goutham Das</t>
+  </si>
+  <si>
+    <t>Granville Barrett</t>
+  </si>
+  <si>
+    <t>Hardik Sejpal</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Harsh shetty</t>
+  </si>
+  <si>
+    <t>Harsh Thakur</t>
+  </si>
+  <si>
+    <t>Harshal bafna</t>
+  </si>
+  <si>
+    <t>Himanshu Dubey</t>
+  </si>
+  <si>
+    <t>Hriday</t>
+  </si>
+  <si>
+    <t>Ijaz</t>
+  </si>
+  <si>
+    <t>Ishaan Gaurav</t>
+  </si>
+  <si>
+    <t>Ishaan Savla</t>
+  </si>
+  <si>
+    <t>Ishaan Sharma</t>
+  </si>
+  <si>
+    <t>Jalpan Shah</t>
+  </si>
+  <si>
+    <t>Jash Chadha</t>
+  </si>
+  <si>
+    <t>Jay Ramane</t>
+  </si>
+  <si>
+    <t>Jay Rao</t>
+  </si>
+  <si>
+    <t>Jay Thaker</t>
+  </si>
+  <si>
+    <t>Jeffrey john</t>
+  </si>
+  <si>
+    <t>Jito Tenson</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Kaavya</t>
+  </si>
+  <si>
+    <t>Kannav Mahajan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karnik </t>
+  </si>
+  <si>
+    <t>Kartik</t>
+  </si>
+  <si>
+    <t>Kashish Parekh</t>
+  </si>
+  <si>
+    <t>Kaushik Pawar</t>
+  </si>
+  <si>
+    <t>Kaushik Sahasranaman</t>
+  </si>
+  <si>
+    <t>Kavish</t>
+  </si>
+  <si>
+    <t>Kavish Pandya</t>
+  </si>
+  <si>
+    <t>Kedarnath Sawant</t>
+  </si>
+  <si>
+    <t>Keegan</t>
+  </si>
+  <si>
+    <t>Keval</t>
+  </si>
+  <si>
+    <t>Kevin Zatakia</t>
+  </si>
+  <si>
+    <t>Kiara Dsouza</t>
+  </si>
+  <si>
+    <t>Kiara Pinto</t>
+  </si>
+  <si>
+    <t>kieara</t>
+  </si>
+  <si>
+    <t>Kirtana</t>
+  </si>
+  <si>
+    <t>Kluivert Patrick</t>
+  </si>
+  <si>
+    <t>Krish kapasi</t>
+  </si>
+  <si>
+    <t>Krishnakant Banke</t>
+  </si>
+  <si>
+    <t>Kshitij Anand</t>
+  </si>
+  <si>
+    <t>Kunal Anand Khambe</t>
+  </si>
+  <si>
+    <t>Kunal Sharma</t>
+  </si>
+  <si>
+    <t>Kushagra Varma</t>
+  </si>
+  <si>
+    <t>Kylen Mendes</t>
+  </si>
+  <si>
+    <t>Lakshaya Sindhwani</t>
+  </si>
+  <si>
+    <t>Laukik Patil</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Macquino Gonsalves</t>
+  </si>
+  <si>
+    <t>Mahit</t>
+  </si>
+  <si>
+    <t>Malkis John</t>
+  </si>
+  <si>
+    <t>Manan Vora</t>
+  </si>
+  <si>
+    <t>Mayur Chopdekar</t>
+  </si>
+  <si>
+    <t>Melkis John</t>
+  </si>
+  <si>
+    <t>Mohammed liban</t>
+  </si>
+  <si>
+    <t>Mohd Atif</t>
+  </si>
+  <si>
+    <t>MUBASHIR</t>
+  </si>
+  <si>
+    <t>Natasha Amanna</t>
+  </si>
+  <si>
+    <t>Navin</t>
+  </si>
+  <si>
+    <t>Neerad Thanvi</t>
+  </si>
+  <si>
+    <t>Nikhil makwana</t>
+  </si>
+  <si>
+    <t>Nirav</t>
+  </si>
+  <si>
+    <t>Nirav gangar</t>
+  </si>
+  <si>
+    <t>Nirvaan Bajla</t>
+  </si>
+  <si>
+    <t>Nirvair Singh Thakur</t>
+  </si>
+  <si>
+    <t>Nishant Rangani</t>
+  </si>
+  <si>
+    <t>Nishanth Poojary</t>
+  </si>
+  <si>
+    <t>Nitesh Sachdev</t>
+  </si>
+  <si>
+    <t>Nivedh hotwani</t>
+  </si>
+  <si>
+    <t>Partb</t>
+  </si>
+  <si>
+    <t>Prasad</t>
+  </si>
+  <si>
+    <t>Prateek Aggarwal</t>
+  </si>
+  <si>
+    <t>Pratham Shah</t>
+  </si>
+  <si>
+    <t>Pratik Sureka</t>
+  </si>
+  <si>
+    <t>Pratik Vyas</t>
+  </si>
+  <si>
+    <t>Purav</t>
+  </si>
+  <si>
+    <t>RAAHUL TR</t>
+  </si>
+  <si>
+    <t>Rahul Kamble</t>
+  </si>
+  <si>
+    <t>Rahul Saini</t>
+  </si>
+  <si>
+    <t>Rahul Sharma</t>
+  </si>
+  <si>
+    <t>Raj Limbachia</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Rajit Singh</t>
+  </si>
+  <si>
+    <t>Rajveer</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>Rakesh Kumar Mallupeddi</t>
+  </si>
+  <si>
+    <t>Rakesh Sakpal</t>
+  </si>
+  <si>
+    <t>Ravi sharma</t>
+  </si>
+  <si>
+    <t>Reece Bhundoo</t>
+  </si>
+  <si>
+    <t>Reyan</t>
+  </si>
+  <si>
+    <t>Richard Xalxo</t>
+  </si>
+  <si>
+    <t>Rithwik M</t>
+  </si>
+  <si>
+    <t>Rizwan Chohan</t>
+  </si>
+  <si>
+    <t>Rohan Fernandes</t>
+  </si>
+  <si>
+    <t>Rohan Temkar</t>
+  </si>
+  <si>
+    <t>ROHIT MALLAH</t>
+  </si>
+  <si>
+    <t>Ronit Patil</t>
+  </si>
+  <si>
+    <t>Ronit patil</t>
+  </si>
+  <si>
+    <t>Ronit Raina</t>
+  </si>
+  <si>
+    <t>Rudra</t>
+  </si>
+  <si>
+    <t>Rudra Kuntal</t>
+  </si>
+  <si>
+    <t>Rushil Shah</t>
+  </si>
+  <si>
+    <t>Rutuja Metkar</t>
+  </si>
+  <si>
+    <t>Ryan Fernandes1</t>
+  </si>
+  <si>
+    <t>Ryan Fernandes</t>
+  </si>
+  <si>
+    <t>S Punjabi</t>
+  </si>
+  <si>
+    <t>Saarth Haria</t>
+  </si>
+  <si>
+    <t>Sagar Vora</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>Sagnik Roy Choudhury</t>
+  </si>
+  <si>
+    <t>Sahil Khedekar</t>
+  </si>
+  <si>
+    <t>Salvius Rodrigues</t>
+  </si>
+  <si>
+    <t>SANKET</t>
+  </si>
+  <si>
+    <t>Sanket Shanware</t>
+  </si>
+  <si>
+    <t>Sanskar</t>
+  </si>
+  <si>
+    <t>Santosh Iyer</t>
+  </si>
+  <si>
+    <t>Satinder Kaur Thakur</t>
+  </si>
+  <si>
+    <t>Shalabh</t>
+  </si>
+  <si>
+    <t>Shangreithem chiphang</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Shantanu Chikhale</t>
+  </si>
+  <si>
+    <t>Shehzaad</t>
+  </si>
+  <si>
+    <t>SHERYL NORONHA</t>
+  </si>
+  <si>
+    <t>Shiva Bisoi</t>
+  </si>
+  <si>
+    <t>Shivam Kumar</t>
+  </si>
+  <si>
+    <t>Shivansh Mishra</t>
+  </si>
+  <si>
+    <t>Shrayon Chanda</t>
+  </si>
+  <si>
+    <t>Shreyas</t>
+  </si>
+  <si>
+    <t>Shrikant</t>
+  </si>
+  <si>
+    <t>Shriniket Chakravarti</t>
+  </si>
+  <si>
+    <t>Shruti kotian</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Soham</t>
+  </si>
+  <si>
+    <t>Srihari</t>
+  </si>
+  <si>
+    <t>Stalin Mathias</t>
+  </si>
+  <si>
+    <t>Suchit K</t>
+  </si>
+  <si>
+    <t>Sukrut Phansekar</t>
+  </si>
+  <si>
+    <t>Sumit khambe</t>
+  </si>
+  <si>
+    <t>Swapnil Tirthakar</t>
+  </si>
+  <si>
+    <t>Tanish Parlikar</t>
+  </si>
+  <si>
+    <t>Tanmay Rane</t>
+  </si>
+  <si>
+    <t>Tarun Bhatia</t>
+  </si>
+  <si>
+    <t>TEJAS PATEL</t>
+  </si>
+  <si>
+    <t>Urja kuvadia</t>
+  </si>
+  <si>
+    <t>Vahin Gosalia</t>
+  </si>
+  <si>
+    <t>Vaibhav Shedge</t>
+  </si>
+  <si>
+    <t>Vandan Mehta</t>
+  </si>
+  <si>
+    <t>Varun Harla</t>
+  </si>
+  <si>
+    <t>Varun Kothari</t>
+  </si>
+  <si>
+    <t>Varun Singh</t>
+  </si>
+  <si>
+    <t>Vedant Chawda</t>
+  </si>
+  <si>
+    <t>veer shah</t>
+  </si>
+  <si>
+    <t>VEERENDRA P</t>
+  </si>
+  <si>
+    <t>Vidit</t>
+  </si>
+  <si>
+    <t>Vinay Janwalkar</t>
+  </si>
+  <si>
+    <t>Vinay Verma</t>
+  </si>
+  <si>
+    <t>Viraj Patil</t>
+  </si>
+  <si>
+    <t>VISHAL</t>
+  </si>
+  <si>
+    <t>Vishnu KV</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Vivek Mohan Sharma</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Yash Ghadi</t>
+  </si>
+  <si>
+    <t>Yash Parekh</t>
+  </si>
+  <si>
+    <t>Yogesh Kashiram Palav</t>
+  </si>
+  <si>
+    <t>Yusuff Syed</t>
+  </si>
+  <si>
+    <t>zeanne</t>
   </si>
 </sst>
 </file>
@@ -2033,10 +2804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B637"/>
+  <dimension ref="A1:B932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414"/>
+    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
+      <selection activeCell="G932" sqref="G932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,5093 +2826,7456 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>458</v>
       </c>
       <c r="B2">
-        <v>9962377585</v>
+        <v>9076061845</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>7991135145</v>
+        <v>9833117443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="B4">
-        <v>9167556068</v>
+        <v>7506907585</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="B5">
-        <v>8356991159</v>
+        <v>7506907585</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>9920978555</v>
+        <v>8450956615</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B7">
-        <v>9821283989</v>
+        <v>8779248780</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="B8">
-        <v>9920820716</v>
+        <v>9028233523</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>9727328234</v>
+        <v>9028233523</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>482</v>
       </c>
       <c r="B10">
-        <v>9987318884</v>
+        <v>9136930032</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="B11">
-        <v>9820008384</v>
+        <v>8248161357</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="B12">
-        <v>9765269649</v>
+        <v>9326859632</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="B13">
-        <v>9769426565</v>
+        <v>8928271560</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c r="B14">
-        <v>8879685456</v>
+        <v>8928271560</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="B15">
-        <v>8652870252</v>
+        <v>7303258528</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>408</v>
       </c>
       <c r="B16">
-        <v>9819506668</v>
+        <v>9326188712</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="B17">
-        <v>9619796198</v>
+        <v>9511774841</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>497</v>
       </c>
       <c r="B18">
-        <v>8898092942</v>
+        <v>8691963498</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="B19">
-        <v>9819476088</v>
+        <v>7738264635</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="B20">
-        <v>8779248780</v>
+        <v>9326772320</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
       <c r="B21">
-        <v>9967266456</v>
+        <v>9920829510</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="B22">
-        <v>9137722528</v>
+        <v>9833198960</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="B23">
-        <v>9619891599</v>
+        <v>7021000734</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="B24">
-        <v>9920975337</v>
+        <v>8891111205</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="B25">
-        <v>9920386052</v>
+        <v>8891111205</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="B26">
-        <v>9820285826</v>
+        <v>7021516932</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B27">
-        <v>8369179520</v>
+        <v>7991135145</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>271</v>
+        <v>396</v>
       </c>
       <c r="B28">
-        <v>9820932510</v>
+        <v>8828049828</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
       <c r="B29">
-        <v>7000160927</v>
+        <v>9233902775</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="B30">
-        <v>9820942887</v>
+        <v>9137924486</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B31">
-        <v>8097305089</v>
+        <v>9825625465</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="B32">
-        <v>9833820073</v>
+        <v>9987214954</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>9819052196</v>
+        <v>7710047897</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B34">
-        <v>9910005269</v>
+        <v>9167556068</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>278</v>
+        <v>99</v>
       </c>
       <c r="B35">
-        <v>8652429386</v>
+        <v>7400208167</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="B36">
-        <v>8652429386</v>
+        <v>9820980925</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>112</v>
       </c>
       <c r="B37">
-        <v>7977909778</v>
+        <v>8368532448</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>8169360339</v>
+        <v>9330351007</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="B39">
-        <v>9870330448</v>
+        <v>8552960534</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="B40">
-        <v>9870060801</v>
+        <v>8552960534</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="B41">
-        <v>9869564206</v>
+        <v>9619161441</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B42">
-        <v>9525522047</v>
+        <v>9920975337</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="B43">
-        <v>9773219438</v>
+        <v>9177419352</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B44">
-        <v>8108647645</v>
+        <v>9078025169</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B45">
-        <v>9833431699</v>
+        <v>9820932510</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>486</v>
       </c>
       <c r="B46">
-        <v>7021345176</v>
+        <v>9920840003</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="B47">
-        <v>8530660891</v>
+        <v>7738584892</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="B48">
-        <v>7021450254</v>
+        <v>8850576520</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>8652552788</v>
+        <v>9920555036</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="B50">
-        <v>9825625465</v>
+        <v>7021807477</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B51">
-        <v>8291429530</v>
+        <v>8291429175</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="B52">
-        <v>8097087525</v>
+        <v>9967008636</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="B53">
-        <v>9619639825</v>
+        <v>9820363646</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B54">
-        <v>9833429262</v>
+        <v>8802317310</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="B55">
-        <v>9663700375</v>
+        <v>8097936081</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="B56">
-        <v>9920526765</v>
+        <v>9326473940</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="B57">
-        <v>9769349626</v>
+        <v>8452925289</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>296</v>
+        <v>42</v>
       </c>
       <c r="B58">
-        <v>9769793813</v>
+        <v>8698155594</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>297</v>
+        <v>494</v>
       </c>
       <c r="B59">
-        <v>7400058805</v>
+        <v>8698155594</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>470</v>
       </c>
       <c r="B60">
-        <v>9820583089</v>
+        <v>8082659575</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="B61">
-        <v>7977253838</v>
+        <v>9819476088</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>416</v>
       </c>
       <c r="B62">
-        <v>7977253838</v>
+        <v>9004284848</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>300</v>
+        <v>477</v>
       </c>
       <c r="B63">
-        <v>9833124342</v>
+        <v>8169269512</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="B64">
-        <v>9820986617</v>
+        <v>9619318643</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>302</v>
+        <v>490</v>
       </c>
       <c r="B65">
-        <v>9167470189</v>
+        <v>9321642903</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>303</v>
+        <v>420</v>
       </c>
       <c r="B66">
-        <v>9096298285</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="B67">
-        <v>7718945445</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>420</v>
       </c>
       <c r="B68">
-        <v>9867698421</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>420</v>
       </c>
       <c r="B69">
-        <v>7718007890</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="B70">
-        <v>9833198960</v>
+        <v>9769806255</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="B71">
-        <v>7353574397</v>
+        <v>8128668021</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>308</v>
+        <v>5</v>
       </c>
       <c r="B72">
-        <v>7353574397</v>
+        <v>9701998419</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
       <c r="B73">
-        <v>9372945464</v>
+        <v>9619541632</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>310</v>
+        <v>58</v>
       </c>
       <c r="B74">
-        <v>8291586758</v>
+        <v>8097280360</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="B75">
-        <v>7977450445</v>
+        <v>9987318884</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>312</v>
+        <v>503</v>
       </c>
       <c r="B76">
-        <v>9653661588</v>
+        <v>9769338343</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>313</v>
+        <v>542</v>
       </c>
       <c r="B77">
-        <v>9619110336</v>
+        <v>9038738968</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="B78">
-        <v>8976222147</v>
+        <v>9833163287</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="B79">
-        <v>9987650385</v>
+        <v>8425996969</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B80">
-        <v>8291429175</v>
+        <v>8652552788</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="B81">
-        <v>9920442402</v>
+        <v>9892774014</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="B82">
-        <v>8850167369</v>
+        <v>8652429386</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="B83">
-        <v>7045125287</v>
+        <v>8652429386</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>320</v>
+        <v>186</v>
       </c>
       <c r="B84">
-        <v>8879188259</v>
+        <v>9742659462</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="B85">
-        <v>7021000734</v>
+        <v>7012280263</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>322</v>
+        <v>204</v>
       </c>
       <c r="B86">
-        <v>9167001530</v>
+        <v>9964294283</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>323</v>
+        <v>179</v>
       </c>
       <c r="B87">
-        <v>9040478900</v>
+        <v>7045758212</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>426</v>
       </c>
       <c r="B88">
-        <v>9963447189</v>
+        <v>9833630108</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>9820119728</v>
+        <v>9324618465</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="B90">
-        <v>740039888</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="B91">
-        <v>8383824428</v>
+        <v>9820957903</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="B92">
-        <v>740039888</v>
+        <v>7972177357</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B93">
-        <v>9029413621</v>
+        <v>9820119728</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="B94">
-        <v>9833172241</v>
+        <v>9833429262</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="B95">
-        <v>7977949921</v>
+        <v>9137099565</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>331</v>
+        <v>245</v>
       </c>
       <c r="B96">
-        <v>9892781748</v>
+        <v>7020120468</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="B97">
-        <v>7506600028</v>
+        <v>7303344344</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="B98">
-        <v>8451954202</v>
+        <v>9386834017</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="B99">
-        <v>9321564419</v>
+        <v>7989759604</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B100">
-        <v>7506600028</v>
+        <v>8291586758</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B101">
-        <v>9820980925</v>
+        <v>7045913619</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="B102">
-        <v>9819032325</v>
+        <v>9833879813</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="B103">
-        <v>9167143142</v>
+        <v>9819994527</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>338</v>
+        <v>468</v>
       </c>
       <c r="B104">
-        <v>9619328315</v>
+        <v>9136114728</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B105">
-        <v>7045913619</v>
+        <v>9833431699</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="B106">
-        <v>9987274766</v>
+        <v>8693003000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="B107">
-        <v>9167308720</v>
+        <v>8693003000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>361</v>
       </c>
       <c r="B108">
-        <v>9833156022</v>
+        <v>9967266456</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>197</v>
       </c>
       <c r="B109">
-        <v>9930113596</v>
+        <v>7827050737</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="B110">
-        <v>8767178992</v>
+        <v>7224004660</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>342</v>
+        <v>202</v>
       </c>
       <c r="B111">
-        <v>7738264635</v>
+        <v>9674457446</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B112">
-        <v>9021783215</v>
+        <v>9699402060</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B113">
-        <v>9820097324</v>
+        <v>8822132577</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>343</v>
+        <v>205</v>
       </c>
       <c r="B114">
-        <v>7400336795</v>
+        <v>9819183383</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="B115">
-        <v>9082476017</v>
+        <v>6009236312</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>345</v>
+        <v>24</v>
       </c>
       <c r="B116">
-        <v>9137924486</v>
+        <v>6009236312</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>346</v>
+        <v>57</v>
       </c>
       <c r="B117">
-        <v>9619161441</v>
+        <v>9321445711</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B118">
-        <v>9833005259</v>
+        <v>9136416888</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="B119">
-        <v>9326473940</v>
+        <v>9820076506</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="B120">
-        <v>9321661551</v>
+        <v>8850167369</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="B121">
-        <v>9820798696</v>
+        <v>9527959565</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="B122">
-        <v>7738546861</v>
+        <v>7506055660</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="B123">
-        <v>9136416888</v>
+        <v>7506055660</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="B124">
-        <v>8657324965</v>
+        <v>8169742996</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>354</v>
+        <v>546</v>
       </c>
       <c r="B125">
-        <v>9619508230</v>
+        <v>122163284</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>355</v>
+        <v>167</v>
       </c>
       <c r="B126">
-        <v>7977724283</v>
+        <v>9820602288</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>356</v>
+        <v>163</v>
       </c>
       <c r="B127">
-        <v>7600089665</v>
+        <v>9833556777</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>439</v>
       </c>
       <c r="B128">
-        <v>9021783215</v>
+        <v>9870569339</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>355</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>7506037068</v>
+        <v>9819032456</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="B130">
-        <v>9769218214</v>
+        <v>9920808993</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="B131">
-        <v>9619400199</v>
+        <v>9619110336</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>107</v>
+        <v>467</v>
       </c>
       <c r="B132">
-        <v>9619400199</v>
+        <v>9967711294</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>473</v>
       </c>
       <c r="B133">
-        <v>8879710925</v>
+        <v>9892326615</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>359</v>
+        <v>473</v>
       </c>
       <c r="B134">
-        <v>9892565045</v>
+        <v>9892326615</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>358</v>
+        <v>86</v>
       </c>
       <c r="B135">
-        <v>8879710925</v>
+        <v>7506285989</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>358</v>
+        <v>94</v>
       </c>
       <c r="B136">
-        <v>8879710925</v>
+        <v>9167758995</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="B137">
-        <v>9969877522</v>
+        <v>8939672290</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>361</v>
+        <v>126</v>
       </c>
       <c r="B138">
-        <v>9967266456</v>
+        <v>8939672290</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>362</v>
+        <v>506</v>
       </c>
       <c r="B139">
-        <v>9967782680</v>
+        <v>8888657868</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="B140">
-        <v>9619096066</v>
+        <v>9820930381</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="B141">
-        <v>9321027763</v>
+        <v>8828085442</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B142">
-        <v>9930095590</v>
+        <v>9820795501</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>365</v>
+        <v>527</v>
       </c>
       <c r="B143">
-        <v>7021154909</v>
+        <v>9594714801</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>366</v>
+        <v>535</v>
       </c>
       <c r="B144">
-        <v>7715045381</v>
+        <v>9967736283</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B145">
-        <v>9819994527</v>
+        <v>9082476017</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>368</v>
+        <v>499</v>
       </c>
       <c r="B146">
-        <v>8879074266</v>
+        <v>9833401017</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>369</v>
+        <v>265</v>
       </c>
       <c r="B147">
-        <v>7977257792</v>
+        <v>9137722528</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>370</v>
+        <v>89</v>
       </c>
       <c r="B148">
-        <v>9004651684</v>
+        <v>9321772075</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>371</v>
+        <v>89</v>
       </c>
       <c r="B149">
-        <v>9967414107</v>
+        <v>9321772075</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>372</v>
+        <v>539</v>
       </c>
       <c r="B150">
-        <v>9326859632</v>
+        <v>9930371443</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B151">
-        <v>9004249569</v>
+        <v>6264850827</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B152">
-        <v>8850576520</v>
+        <v>6264850827</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B153">
-        <v>8082550808</v>
+        <v>9892565045</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="B154">
-        <v>9833163287</v>
+        <v>9820975961</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>377</v>
+        <v>147</v>
       </c>
       <c r="B155">
-        <v>7738584892</v>
+        <v>7728095633</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>378</v>
+        <v>277</v>
       </c>
       <c r="B156">
-        <v>7021807477</v>
+        <v>9910005269</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="B157">
-        <v>9969004969</v>
+        <v>9820099362</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>380</v>
+        <v>478</v>
       </c>
       <c r="B158">
-        <v>8080071918</v>
+        <v>8879548954</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="B159">
-        <v>8669104877</v>
+        <v>9167967009</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="B160">
-        <v>8850570228</v>
+        <v>9833172241</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>383</v>
+        <v>146</v>
       </c>
       <c r="B161">
-        <v>6264850827</v>
+        <v>9820097324</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>383</v>
+        <v>146</v>
       </c>
       <c r="B162">
-        <v>6264850827</v>
+        <v>8652270666</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>384</v>
+        <v>241</v>
       </c>
       <c r="B163">
-        <v>8454981013</v>
+        <v>8850398501</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B164">
-        <v>9004179170</v>
+        <v>8652275666</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>385</v>
+        <v>10</v>
       </c>
       <c r="B165">
-        <v>9326393593</v>
+        <v>8652270666</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>386</v>
+        <v>134</v>
       </c>
       <c r="B166">
-        <v>7208617121</v>
+        <v>8652275666</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>387</v>
+        <v>138</v>
       </c>
       <c r="B167">
-        <v>9833350989</v>
+        <v>9953456995</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
       <c r="B168">
-        <v>8097936081</v>
+        <v>9920830086</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>389</v>
+        <v>38</v>
       </c>
       <c r="B169">
-        <v>9819113226</v>
+        <v>9326065876</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>390</v>
+        <v>30</v>
       </c>
       <c r="B170">
-        <v>8828085442</v>
+        <v>9911346303</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>391</v>
+        <v>212</v>
       </c>
       <c r="B171">
-        <v>9820258657</v>
+        <v>9664852211</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>348</v>
+        <v>225</v>
       </c>
       <c r="B172">
-        <v>8452925289</v>
+        <v>9920799405</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="B173">
-        <v>9372336413</v>
+        <v>8850264515</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>393</v>
+        <v>8</v>
       </c>
       <c r="B174">
-        <v>9167729787</v>
+        <v>9773219438</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>394</v>
+        <v>8</v>
       </c>
       <c r="B175">
-        <v>7972177357</v>
+        <v>9773219438</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>395</v>
+        <v>15</v>
       </c>
       <c r="B176">
-        <v>8291462836</v>
+        <v>9371338679</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="B177">
-        <v>8828049828</v>
+        <v>8355882532</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>397</v>
+        <v>233</v>
       </c>
       <c r="B178">
-        <v>9820165102</v>
+        <v>7900067921</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B179">
-        <v>9773331423</v>
+        <v>7276735140</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="B180">
-        <v>9386834017</v>
+        <v>9769054345</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>399</v>
+        <v>487</v>
       </c>
       <c r="B181">
-        <v>8879318169</v>
+        <v>9833297735</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B182">
-        <v>9892774014</v>
+        <v>8082097705</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>401</v>
+        <v>135</v>
       </c>
       <c r="B183">
-        <v>9222006003</v>
+        <v>7021546818</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="B184">
-        <v>9987194804</v>
+        <v>9833250497</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>132</v>
+        <v>411</v>
       </c>
       <c r="B185">
-        <v>9833510450</v>
+        <v>9404176610</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="B186">
-        <v>9619924240</v>
+        <v>7045125287</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>404</v>
+        <v>282</v>
       </c>
       <c r="B187">
-        <v>9820929225</v>
+        <v>9525522047</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>405</v>
+        <v>290</v>
       </c>
       <c r="B188">
-        <v>9331018474</v>
+        <v>8291429530</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>406</v>
+        <v>153</v>
       </c>
       <c r="B189">
-        <v>9820099362</v>
+        <v>9820507676</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="B190">
-        <v>8082097705</v>
+        <v>8879498384</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>408</v>
+        <v>275</v>
       </c>
       <c r="B191">
-        <v>9326188712</v>
+        <v>9833820073</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>409</v>
+        <v>184</v>
       </c>
       <c r="B192">
-        <v>9820595991</v>
+        <v>8792609233</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>410</v>
+        <v>114</v>
       </c>
       <c r="B193">
-        <v>9870458967</v>
+        <v>7977985421</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>411</v>
+        <v>269</v>
       </c>
       <c r="B194">
-        <v>9404176610</v>
+        <v>9820285826</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>412</v>
+        <v>545</v>
       </c>
       <c r="B195">
-        <v>9321569648</v>
+        <v>8698711080</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="B196">
-        <v>9136883411</v>
+        <v>8169616067</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>414</v>
+        <v>219</v>
       </c>
       <c r="B197">
-        <v>9821463399</v>
+        <v>8341000003</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="B198">
-        <v>9820076506</v>
+        <v>8104291159</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>416</v>
+        <v>303</v>
       </c>
       <c r="B199">
-        <v>9004284848</v>
+        <v>9096298285</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="B200">
-        <v>8355882532</v>
+        <v>9833297735</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>418</v>
+        <v>110</v>
       </c>
       <c r="B201">
-        <v>9920808993</v>
+        <v>9604374470</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="B202">
-        <v>8850264515</v>
+        <v>9619508230</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>420</v>
+        <v>296</v>
       </c>
       <c r="B203">
-        <v>9967266456</v>
+        <v>9769793813</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>421</v>
+        <v>230</v>
       </c>
       <c r="B204">
-        <v>7303344344</v>
+        <v>9953907009</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>422</v>
+        <v>291</v>
       </c>
       <c r="B205">
-        <v>9594213950</v>
+        <v>8097087525</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>420</v>
+        <v>116</v>
       </c>
       <c r="B206">
-        <v>9967266456</v>
+        <v>9136706122</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>420</v>
+        <v>116</v>
       </c>
       <c r="B207">
-        <v>9967266456</v>
+        <v>9136706122</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>420</v>
+        <v>116</v>
       </c>
       <c r="B208">
-        <v>9967266456</v>
+        <v>9136706122</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B209">
-        <v>9619120512</v>
+        <v>9820595991</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>423</v>
+        <v>261</v>
       </c>
       <c r="B210">
-        <v>9619120512</v>
+        <v>8898092942</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="B211">
-        <v>8169742996</v>
+        <v>8291462836</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="B212">
-        <v>8657323349</v>
+        <v>9167415422</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>426</v>
+        <v>534</v>
       </c>
       <c r="B213">
-        <v>9833630108</v>
+        <v>9920407007</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="B214">
-        <v>7021101748</v>
+        <v>9833194369</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="B215">
-        <v>9833508853</v>
+        <v>9967414107</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>396</v>
+        <v>9</v>
       </c>
       <c r="B216">
-        <v>9233902775</v>
+        <v>9653786661</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="B217">
-        <v>7045712010</v>
+        <v>9004550066</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B218">
-        <v>9136315168</v>
+        <v>9821463399</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>431</v>
+        <v>26</v>
       </c>
       <c r="B219">
-        <v>7715947157</v>
+        <v>9967232595</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>432</v>
+        <v>351</v>
       </c>
       <c r="B220">
-        <v>9619388760</v>
+        <v>7738546861</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>433</v>
+        <v>213</v>
       </c>
       <c r="B221">
-        <v>9421183831</v>
+        <v>9923356253</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>434</v>
+        <v>305</v>
       </c>
       <c r="B222">
-        <v>9769034708</v>
+        <v>9867698421</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>29</v>
       </c>
       <c r="B223">
-        <v>7506064545</v>
+        <v>9820281589</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>436</v>
+        <v>166</v>
       </c>
       <c r="B224">
-        <v>9820930381</v>
+        <v>9833156022</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>437</v>
+        <v>166</v>
       </c>
       <c r="B225">
-        <v>9930530586</v>
+        <v>9833156022</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>438</v>
+        <v>314</v>
       </c>
       <c r="B226">
-        <v>9769054345</v>
+        <v>8976222147</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="B227">
-        <v>9870569339</v>
+        <v>7988306605</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="B228">
-        <v>8879957245</v>
+        <v>7988306605</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="B229">
-        <v>9970041798</v>
+        <v>7988306605</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="B230">
-        <v>9920829510</v>
+        <v>9825249465</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>443</v>
+        <v>520</v>
       </c>
       <c r="B231">
-        <v>9167970195</v>
+        <v>9930229171</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>444</v>
+        <v>517</v>
       </c>
       <c r="B232">
-        <v>9876104376</v>
+        <v>9930229171</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>445</v>
+        <v>252</v>
       </c>
       <c r="B233">
-        <v>9167967009</v>
+        <v>9920820716</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>299</v>
+        <v>148</v>
       </c>
       <c r="B234">
-        <v>7977253838</v>
+        <v>8097084551</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>446</v>
+        <v>148</v>
       </c>
       <c r="B235">
-        <v>9321641012</v>
+        <v>9567013014</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="B236">
-        <v>9867430108</v>
+        <v>8285223344</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>447</v>
+        <v>113</v>
       </c>
       <c r="B237">
-        <v>9372002278</v>
+        <v>8826254515</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="B238">
-        <v>8591713181</v>
+        <v>9567013014</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>449</v>
+        <v>235</v>
       </c>
       <c r="B239">
-        <v>9819223822</v>
+        <v>9833328499</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>450</v>
+        <v>118</v>
       </c>
       <c r="B240">
-        <v>9324386377</v>
+        <v>9790915656</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="B241">
-        <v>9324386377</v>
+        <v>9619388760</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>451</v>
+        <v>182</v>
       </c>
       <c r="B242">
-        <v>9819612890</v>
+        <v>9004179170</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>452</v>
+        <v>182</v>
       </c>
       <c r="B243">
-        <v>9987140072</v>
+        <v>8451816579</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>453</v>
+        <v>169</v>
       </c>
       <c r="B244">
-        <v>8976600645</v>
+        <v>9912934202</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>454</v>
+        <v>67</v>
       </c>
       <c r="B245">
-        <v>9987386122</v>
+        <v>9403839799</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>455</v>
+        <v>6</v>
       </c>
       <c r="B246">
-        <v>9619882826</v>
+        <v>8097305089</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="B247">
-        <v>7045840470</v>
+        <v>8097305089</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>457</v>
+        <v>274</v>
       </c>
       <c r="B248">
-        <v>9769806255</v>
+        <v>8097305089</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B249">
-        <v>9076061845</v>
+        <v>9324386377</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B250">
-        <v>9029113557</v>
+        <v>9324386377</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B251">
-        <v>7021679365</v>
+        <v>9025099113</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>460</v>
+        <v>51</v>
       </c>
       <c r="B252">
-        <v>7224004660</v>
+        <v>9025099113</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B253">
-        <v>9167415422</v>
+        <v>9167825566</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>462</v>
+        <v>341</v>
       </c>
       <c r="B254">
-        <v>8506088080</v>
+        <v>8767178992</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B255">
-        <v>7895412610</v>
+        <v>9004839815</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="B256">
-        <v>9226919368</v>
+        <v>8080731854</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="B257">
-        <v>7021633756</v>
+        <v>9321569648</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>466</v>
+        <v>124</v>
       </c>
       <c r="B258">
-        <v>8104291159</v>
+        <v>9820186744</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="B259">
-        <v>8082003347</v>
+        <v>9820186744</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>467</v>
+        <v>124</v>
       </c>
       <c r="B260">
-        <v>9967711294</v>
+        <v>9820186744</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>468</v>
+        <v>124</v>
       </c>
       <c r="B261">
-        <v>9136114728</v>
+        <v>9820186744</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="B262">
-        <v>9762184152</v>
+        <v>9222006003</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="B263">
-        <v>8082659575</v>
+        <v>9930530586</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>471</v>
+        <v>111</v>
       </c>
       <c r="B264">
-        <v>7439204060</v>
+        <v>9920106648</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>472</v>
+        <v>312</v>
       </c>
       <c r="B265">
-        <v>9004839815</v>
+        <v>9653661588</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>473</v>
+        <v>33</v>
       </c>
       <c r="B266">
-        <v>9892326615</v>
+        <v>7666416488</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>474</v>
+        <v>47</v>
       </c>
       <c r="B267">
-        <v>8454903845</v>
+        <v>9833993966</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>475</v>
+        <v>47</v>
       </c>
       <c r="B268">
-        <v>9820003415</v>
+        <v>9833993966</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>476</v>
+        <v>47</v>
       </c>
       <c r="B269">
-        <v>9114190177</v>
+        <v>9833993966</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>477</v>
+        <v>47</v>
       </c>
       <c r="B270">
-        <v>8169269512</v>
+        <v>9833993966</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>478</v>
+        <v>108</v>
       </c>
       <c r="B271">
-        <v>8879548954</v>
+        <v>7666416488</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>479</v>
+        <v>141</v>
       </c>
       <c r="B272">
-        <v>9167757640</v>
+        <v>9011055371</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>480</v>
+        <v>356</v>
       </c>
       <c r="B273">
-        <v>9004550066</v>
+        <v>7600089665</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B274">
-        <v>9833297735</v>
+        <v>9167757640</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>482</v>
+        <v>53</v>
       </c>
       <c r="B275">
-        <v>9136930032</v>
+        <v>9022106920</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>483</v>
+        <v>83</v>
       </c>
       <c r="B276">
-        <v>9167825566</v>
+        <v>9819230083</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
       <c r="B277">
-        <v>8976069544</v>
+        <v>8879710925</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>485</v>
+        <v>358</v>
       </c>
       <c r="B278">
-        <v>9920830086</v>
+        <v>8879710925</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>486</v>
+        <v>358</v>
       </c>
       <c r="B279">
-        <v>9920840003</v>
+        <v>8879710925</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>487</v>
+        <v>324</v>
       </c>
       <c r="B280">
-        <v>9833297735</v>
+        <v>9963447189</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>488</v>
+        <v>133</v>
       </c>
       <c r="B281">
-        <v>8450995425</v>
+        <v>9082633855</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>473</v>
+        <v>74</v>
       </c>
       <c r="B282">
-        <v>9892326615</v>
+        <v>9673636981</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>489</v>
+        <v>370</v>
       </c>
       <c r="B283">
-        <v>9819275429</v>
+        <v>9004651684</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>490</v>
+        <v>317</v>
       </c>
       <c r="B284">
-        <v>9321642903</v>
+        <v>9920442402</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>491</v>
+        <v>347</v>
       </c>
       <c r="B285">
-        <v>8072136738</v>
+        <v>9833005259</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>492</v>
+        <v>272</v>
       </c>
       <c r="B286">
-        <v>9619541632</v>
+        <v>7000160927</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>391</v>
+        <v>100</v>
       </c>
       <c r="B287">
-        <v>9820258657</v>
+        <v>8976424429</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>493</v>
+        <v>365</v>
       </c>
       <c r="B288">
-        <v>8169346167</v>
+        <v>7021154909</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>494</v>
+        <v>132</v>
       </c>
       <c r="B289">
-        <v>8698155594</v>
+        <v>9833510450</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>495</v>
+        <v>132</v>
       </c>
       <c r="B290">
-        <v>7710973127</v>
+        <v>9833510450</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B291">
-        <v>7988306605</v>
+        <v>9967829244</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="B292">
-        <v>7988306605</v>
+        <v>9724404111</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
       <c r="B293">
-        <v>8691963498</v>
+        <v>9167970195</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>498</v>
+        <v>430</v>
       </c>
       <c r="B294">
-        <v>9029901209</v>
+        <v>9136315168</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
       <c r="B295">
-        <v>7988306605</v>
+        <v>7045015540</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>499</v>
+        <v>159</v>
       </c>
       <c r="B296">
-        <v>9833401017</v>
+        <v>8356821320</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="B297">
-        <v>8976221578</v>
+        <v>9612464595</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>501</v>
+        <v>194</v>
       </c>
       <c r="B298">
-        <v>9567013014</v>
+        <v>7005119845</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>502</v>
+        <v>156</v>
       </c>
       <c r="B299">
-        <v>9324099139</v>
+        <v>9082416001</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>503</v>
+        <v>192</v>
       </c>
       <c r="B300">
-        <v>9769338343</v>
+        <v>9867338598</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>504</v>
+        <v>297</v>
       </c>
       <c r="B301">
-        <v>9322179537</v>
+        <v>7400058805</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="B302">
-        <v>9167291980</v>
+        <v>8169976751</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B303">
-        <v>8888657868</v>
+        <v>9987589112</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>507</v>
+        <v>259</v>
       </c>
       <c r="B304">
-        <v>9820975961</v>
+        <v>9819506668</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>508</v>
+        <v>217</v>
       </c>
       <c r="B305">
-        <v>8097678023</v>
+        <v>9987589112</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>509</v>
+        <v>131</v>
       </c>
       <c r="B306">
-        <v>9664357976</v>
+        <v>9321432024</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>430</v>
+        <v>298</v>
       </c>
       <c r="B307">
-        <v>7045015540</v>
+        <v>9820583089</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="B308">
-        <v>9820422197</v>
+        <v>132024682</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>511</v>
+        <v>63</v>
       </c>
       <c r="B309">
-        <v>8080698454</v>
+        <v>9920563414</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>512</v>
+        <v>279</v>
       </c>
       <c r="B310">
-        <v>9987589112</v>
+        <v>7977909778</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>513</v>
+        <v>91</v>
       </c>
       <c r="B311">
-        <v>9004503132</v>
+        <v>9920080801</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="B312">
-        <v>7506055660</v>
+        <v>9920080801</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>397</v>
+        <v>91</v>
       </c>
       <c r="B313">
-        <v>9820165102</v>
+        <v>9920080801</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>514</v>
+        <v>360</v>
       </c>
       <c r="B314">
-        <v>9967829244</v>
+        <v>9969877522</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B315">
-        <v>9420059303</v>
+        <v>8898915759</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>526</v>
       </c>
       <c r="B316">
-        <v>9967008636</v>
+        <v>9821723247</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>516</v>
+        <v>338</v>
       </c>
       <c r="B317">
-        <v>9825249465</v>
+        <v>9619328315</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>517</v>
+        <v>384</v>
       </c>
       <c r="B318">
-        <v>9930229171</v>
+        <v>8454981013</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>397</v>
+        <v>142</v>
       </c>
       <c r="B319">
-        <v>9820165102</v>
+        <v>9561102181</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>518</v>
+        <v>77</v>
       </c>
       <c r="B320">
-        <v>9920850021</v>
+        <v>9869564206</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="B321">
-        <v>9137099565</v>
+        <v>7021679365</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>519</v>
+        <v>77</v>
       </c>
       <c r="B322">
-        <v>9321531243</v>
+        <v>8097037176</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>520</v>
+        <v>308</v>
       </c>
       <c r="B323">
-        <v>9930229171</v>
+        <v>7353574397</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>521</v>
+        <v>308</v>
       </c>
       <c r="B324">
-        <v>9820263099</v>
+        <v>7353574397</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>521</v>
+        <v>300</v>
       </c>
       <c r="B325">
-        <v>9820263099</v>
+        <v>9833124342</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>522</v>
+        <v>16</v>
       </c>
       <c r="B326">
-        <v>8999124875</v>
+        <v>9920300903</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>523</v>
+        <v>23</v>
       </c>
       <c r="B327">
-        <v>9403625282</v>
+        <v>9867348857</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="B328">
-        <v>8080731854</v>
+        <v>9820003415</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="B329">
-        <v>8898915759</v>
+        <v>9762184152</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>526</v>
+        <v>440</v>
       </c>
       <c r="B330">
-        <v>9821723247</v>
+        <v>8879957245</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>527</v>
+        <v>224</v>
       </c>
       <c r="B331">
-        <v>9594714801</v>
+        <v>9820820297</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>528</v>
+        <v>224</v>
       </c>
       <c r="B332">
-        <v>8169976751</v>
+        <v>9820820297</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="B333">
-        <v>7020120468</v>
+        <v>9566107351</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>529</v>
+        <v>150</v>
       </c>
       <c r="B334">
-        <v>9822460660</v>
+        <v>8106669966</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>66</v>
+        <v>452</v>
       </c>
       <c r="B335">
-        <v>9890115400</v>
+        <v>9987140072</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>530</v>
+        <v>226</v>
       </c>
       <c r="B336">
-        <v>6392907996</v>
+        <v>8511207086</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>531</v>
+        <v>449</v>
       </c>
       <c r="B337">
-        <v>9724404111</v>
+        <v>9819223822</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>532</v>
+        <v>343</v>
       </c>
       <c r="B338">
-        <v>9920950868</v>
+        <v>7400336795</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>533</v>
+        <v>201</v>
       </c>
       <c r="B339">
-        <v>8160080889</v>
+        <v>9769801996</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="B340">
-        <v>9920407007</v>
+        <v>9321370806</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B341">
-        <v>9967736283</v>
+        <v>9819517442</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>536</v>
+        <v>389</v>
       </c>
       <c r="B342">
-        <v>9384066869</v>
+        <v>9819113226</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>537</v>
+        <v>238</v>
       </c>
       <c r="B343">
-        <v>8143238799</v>
+        <v>9765269649</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>538</v>
+        <v>238</v>
       </c>
       <c r="B344">
-        <v>9819517442</v>
+        <v>8779039771</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>539</v>
+        <v>137</v>
       </c>
       <c r="B345">
-        <v>9930371443</v>
+        <v>9149036209</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B346">
-        <v>9136530312</v>
+        <v>9920950868</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="B347">
-        <v>9136530312</v>
+        <v>8779039771</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>540</v>
+        <v>31</v>
       </c>
       <c r="B348">
-        <v>9136530312</v>
+        <v>9820451303</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="B349">
-        <v>9586982464</v>
+        <v>9870458967</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>542</v>
+        <v>203</v>
       </c>
       <c r="B350">
-        <v>9038738968</v>
+        <v>9920695648</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>543</v>
+        <v>127</v>
       </c>
       <c r="B351">
-        <v>9867325288</v>
+        <v>9599347501</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>544</v>
+        <v>425</v>
       </c>
       <c r="B352">
-        <v>9594856857</v>
+        <v>8657323349</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B353">
-        <v>8698711080</v>
+        <v>9136530312</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>2</v>
+        <v>540</v>
       </c>
       <c r="B354">
-        <v>8828870458</v>
+        <v>9136530312</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>3</v>
+        <v>540</v>
       </c>
       <c r="B355">
-        <v>9899471626</v>
+        <v>9136530312</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>4</v>
+        <v>543</v>
       </c>
       <c r="B356">
-        <v>9021783215</v>
+        <v>9867325288</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>5</v>
+        <v>504</v>
       </c>
       <c r="B357">
-        <v>9701998419</v>
+        <v>9322179537</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>6</v>
+        <v>522</v>
       </c>
       <c r="B358">
-        <v>8097305089</v>
+        <v>8999124875</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B359">
-        <v>8097305089</v>
+        <v>9871644466</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="B360">
-        <v>9920555036</v>
+        <v>9999898898</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="B361">
-        <v>9773219438</v>
+        <v>9820929686</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>9</v>
+        <v>548</v>
       </c>
       <c r="B362">
-        <v>9653786661</v>
+        <v>829566636</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="B363">
-        <v>8652270666</v>
+        <v>9833934232</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="B364">
-        <v>9619118248</v>
+        <v>9167143142</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="B365">
-        <v>7710047897</v>
+        <v>8974249714</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>13</v>
+        <v>387</v>
       </c>
       <c r="B366">
-        <v>9930612898</v>
+        <v>9833350989</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="B367">
-        <v>9930612898</v>
+        <v>9558721001</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="B368">
-        <v>7977593094</v>
+        <v>8530660891</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>15</v>
+        <v>465</v>
       </c>
       <c r="B369">
-        <v>9371338679</v>
+        <v>7021633756</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="B370">
-        <v>9920300903</v>
+        <v>8451004728</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="B371">
-        <v>9527959565</v>
+        <v>9820986617</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B372">
-        <v>8928606139</v>
+        <v>9321511042</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B373">
-        <v>8879092962</v>
+        <v>9820126146</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="B374">
-        <v>8285223344</v>
+        <v>9867791780</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B375">
-        <v>9967792829</v>
+        <v>9619118248</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="B376">
-        <v>9096651692</v>
+        <v>9870330448</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="B377">
-        <v>9867348857</v>
+        <v>9820554885</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B378">
-        <v>6009236312</v>
+        <v>8605437788</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="B379">
-        <v>6009236312</v>
+        <v>9773331423</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="B380">
-        <v>9612464595</v>
+        <v>9773314239</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>26</v>
+        <v>519</v>
       </c>
       <c r="B381">
-        <v>9967232595</v>
+        <v>9321531243</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>27</v>
+        <v>523</v>
       </c>
       <c r="B382">
-        <v>7710994260</v>
+        <v>9403625282</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>28</v>
+        <v>386</v>
       </c>
       <c r="B383">
-        <v>8605437788</v>
+        <v>7208617121</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>29</v>
+        <v>385</v>
       </c>
       <c r="B384">
-        <v>9820281589</v>
+        <v>9326393593</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="B385">
-        <v>9911346303</v>
+        <v>9619806615</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>31</v>
+        <v>441</v>
       </c>
       <c r="B386">
-        <v>9820451303</v>
+        <v>9970041798</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>32</v>
+        <v>382</v>
       </c>
       <c r="B387">
-        <v>7219896663</v>
+        <v>8850570228</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="B388">
-        <v>7666416488</v>
+        <v>8588897285</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="B389">
-        <v>9820363646</v>
+        <v>8976069544</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>35</v>
+        <v>495</v>
       </c>
       <c r="B390">
-        <v>9372365043</v>
+        <v>7710973127</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B391">
-        <v>9833117443</v>
+        <v>9021783215</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B392">
-        <v>8450956615</v>
+        <v>9021783215</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B393">
-        <v>9326065876</v>
+        <v>9021783215</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B394">
-        <v>8828870458</v>
+        <v>9021783215</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>39</v>
+        <v>380</v>
       </c>
       <c r="B395">
-        <v>9330351007</v>
+        <v>8080071918</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="B396">
-        <v>9819216439</v>
+        <v>9820942887</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="B397">
-        <v>9326772320</v>
+        <v>9920526765</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="B398">
-        <v>8698155594</v>
+        <v>9820877238</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B399">
-        <v>9810252312</v>
+        <v>7977593094</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="B400">
-        <v>9820512543</v>
+        <v>9321661551</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="B401">
-        <v>8879498384</v>
+        <v>9876104376</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B402">
-        <v>7977201625</v>
+        <v>6364650953</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>47</v>
+        <v>544</v>
       </c>
       <c r="B403">
-        <v>9833993966</v>
+        <v>9594856857</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="B404">
-        <v>9833993966</v>
+        <v>7977253838</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="B405">
-        <v>9833993966</v>
+        <v>7977253838</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="B406">
-        <v>9833993966</v>
+        <v>7977253838</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>48</v>
+        <v>339</v>
       </c>
       <c r="B407">
-        <v>9769459690</v>
+        <v>9987274766</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="B408">
-        <v>9769459690</v>
+        <v>7718945445</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>49</v>
+        <v>392</v>
       </c>
       <c r="B409">
-        <v>8693003000</v>
+        <v>9372336413</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="B410">
-        <v>9619192575</v>
+        <v>8082367100</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="B411">
-        <v>9025099113</v>
+        <v>9820798696</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="B412">
-        <v>9025099113</v>
+        <v>9962002563</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="B413">
-        <v>9821576884</v>
+        <v>9727328234</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B414">
-        <v>9022106920</v>
+        <v>9930374480</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>54</v>
+        <v>435</v>
       </c>
       <c r="B415">
-        <v>9511774841</v>
+        <v>7506064545</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B416">
-        <v>9820721410</v>
+        <v>9167553949</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>56</v>
+        <v>476</v>
       </c>
       <c r="B417">
-        <v>9962551828</v>
+        <v>9114190177</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="B418">
-        <v>9321445711</v>
+        <v>8383824428</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="B419">
-        <v>8097280360</v>
+        <v>9920978555</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B420">
-        <v>8446910423</v>
+        <v>9930612898</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B421">
-        <v>7559360478</v>
+        <v>9930612898</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="B422">
-        <v>8999372024</v>
+        <v>8108647645</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>62</v>
+        <v>464</v>
       </c>
       <c r="B423">
-        <v>9028233523</v>
+        <v>9226919368</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>63</v>
+        <v>541</v>
       </c>
       <c r="B424">
-        <v>9920563414</v>
+        <v>9586982464</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>64</v>
+        <v>455</v>
       </c>
       <c r="B425">
-        <v>9689444578</v>
+        <v>9619882826</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>65</v>
+        <v>431</v>
       </c>
       <c r="B426">
-        <v>7776858986</v>
+        <v>7715947157</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="B427">
-        <v>9890115400</v>
+        <v>7021450254</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="B428">
-        <v>9403839799</v>
+        <v>7021345176</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="B429">
-        <v>9689444578</v>
+        <v>9920386052</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="B430">
-        <v>7620587795</v>
+        <v>9870060801</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B431">
-        <v>9657960484</v>
+        <v>9819216439</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="B432">
-        <v>9769217536</v>
+        <v>9945794472</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>71</v>
+        <v>397</v>
       </c>
       <c r="B433">
-        <v>9820258657</v>
+        <v>9820165102</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="B434">
-        <v>8693834003</v>
+        <v>9820165102</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="B435">
-        <v>7021516932</v>
+        <v>9820165102</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>74</v>
+        <v>453</v>
       </c>
       <c r="B436">
-        <v>9673636981</v>
+        <v>8976600645</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="B437">
-        <v>8669104877</v>
+        <v>7045712010</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B438">
-        <v>8669104877</v>
+        <v>8999372024</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="B439">
-        <v>8169616067</v>
+        <v>9987650385</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="B440">
-        <v>8097037176</v>
+        <v>8879074266</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="B441">
-        <v>6026868805</v>
+        <v>7895412610</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="B442">
-        <v>6026868805</v>
+        <v>9892781748</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="B443">
-        <v>9321370806</v>
+        <v>8369179520</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B444">
-        <v>9833250497</v>
+        <v>9820721410</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B445">
-        <v>6364650953</v>
+        <v>8693834003</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B446">
-        <v>9969261694</v>
+        <v>9819052196</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="B447">
-        <v>9819230083</v>
+        <v>9819052196</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>84</v>
+        <v>355</v>
       </c>
       <c r="B448">
-        <v>9820126146</v>
+        <v>7977724283</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>85</v>
+        <v>355</v>
       </c>
       <c r="B449">
-        <v>9871644466</v>
+        <v>7506037068</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>86</v>
+        <v>402</v>
       </c>
       <c r="B450">
-        <v>7506285989</v>
+        <v>9987194804</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>87</v>
+        <v>306</v>
       </c>
       <c r="B451">
-        <v>9757168723</v>
+        <v>7718007890</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B452">
-        <v>8657932932</v>
+        <v>8484031607</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>89</v>
+        <v>364</v>
       </c>
       <c r="B453">
-        <v>9321772075</v>
+        <v>9321027763</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>89</v>
+        <v>434</v>
       </c>
       <c r="B454">
-        <v>9321772075</v>
+        <v>9769034708</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
       <c r="B455">
-        <v>9836295855</v>
+        <v>9969004969</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B456">
-        <v>9920080801</v>
+        <v>7559360478</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B457">
-        <v>9004574044</v>
+        <v>9930095590</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B458">
-        <v>9920080801</v>
+        <v>8082003347</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B459">
-        <v>9920080801</v>
+        <v>9769217536</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B460">
-        <v>9699402060</v>
+        <v>9820258657</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>94</v>
+        <v>391</v>
       </c>
       <c r="B461">
-        <v>9167758995</v>
+        <v>9820258657</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>95</v>
+        <v>391</v>
       </c>
       <c r="B462">
-        <v>8484031607</v>
+        <v>9820258657</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="B463">
-        <v>8097852203</v>
+        <v>7715045381</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>97</v>
+        <v>393</v>
       </c>
       <c r="B464">
-        <v>9324618465</v>
+        <v>9167729787</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>98</v>
+        <v>537</v>
       </c>
       <c r="B465">
-        <v>9606853332</v>
+        <v>8143238799</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="B466">
-        <v>9606853332</v>
+        <v>9833508853</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B467">
-        <v>8693003000</v>
+        <v>9757168723</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="B468">
-        <v>7400208167</v>
+        <v>8369325934</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>100</v>
+        <v>422</v>
       </c>
       <c r="B469">
-        <v>8976424429</v>
+        <v>9594213950</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="B470">
-        <v>7558573207</v>
+        <v>9372365043</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="B471">
-        <v>9769725949</v>
+        <v>9819032325</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="B472">
-        <v>9619470025</v>
+        <v>9819032325</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="B473">
-        <v>8879071063</v>
+        <v>9886130891</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="B474">
-        <v>9619318643</v>
+        <v>9821576884</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>106</v>
+        <v>413</v>
       </c>
       <c r="B475">
-        <v>9999048026</v>
+        <v>9136883411</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>107</v>
+        <v>493</v>
       </c>
       <c r="B476">
-        <v>9820837271</v>
+        <v>8169346167</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="B477">
-        <v>7666416488</v>
+        <v>8356991159</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>109</v>
+        <v>332</v>
       </c>
       <c r="B478">
-        <v>9930110800</v>
+        <v>7506600028</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="B479">
-        <v>9604374470</v>
+        <v>7506600028</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B480">
-        <v>9920106648</v>
+        <v>9962551828</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>546</v>
+        <v>56</v>
       </c>
       <c r="B481">
-        <v>122163284</v>
+        <v>9962551828</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>547</v>
+        <v>109</v>
       </c>
       <c r="B482">
-        <v>132024682</v>
+        <v>9930110800</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B483">
-        <v>8368532448</v>
+        <v>9820721410</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B484">
-        <v>8826254515</v>
+        <v>8600555699</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B485">
-        <v>7977985421</v>
+        <v>9595555222</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>115</v>
+        <v>320</v>
       </c>
       <c r="B486">
-        <v>9177419352</v>
+        <v>8879188259</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="B487">
-        <v>9136706122</v>
+        <v>9769459690</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="B488">
-        <v>9136706122</v>
+        <v>9769459690</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="B489">
-        <v>9930374480</v>
+        <v>9769459690</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B490">
-        <v>9790915656</v>
+        <v>9657960484</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>119</v>
+        <v>471</v>
       </c>
       <c r="B491">
-        <v>8928271560</v>
+        <v>7439204060</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B492">
-        <v>8860432961</v>
+        <v>8879071063</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B493">
-        <v>8928271560</v>
+        <v>7558573207</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="B494">
-        <v>9566107351</v>
+        <v>7977145358</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B495">
-        <v>8600555699</v>
+        <v>8097852203</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B496">
-        <v>9819826246</v>
+        <v>9619400199</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B497">
-        <v>9136706122</v>
+        <v>9619400199</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B498">
-        <v>9820186744</v>
+        <v>9820837271</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="B499">
-        <v>9820186744</v>
+        <v>7710994260</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="B500">
-        <v>9004503132</v>
+        <v>8976221578</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>125</v>
+        <v>451</v>
       </c>
       <c r="B501">
-        <v>9004503132</v>
+        <v>9819612890</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>126</v>
+        <v>340</v>
       </c>
       <c r="B502">
-        <v>8939672290</v>
+        <v>9930113596</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="B503">
-        <v>8939672290</v>
+        <v>9166982333</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B504">
-        <v>9599347501</v>
+        <v>7387425832</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="B505">
-        <v>9899471626</v>
+        <v>9821283989</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B506">
-        <v>9819032456</v>
+        <v>7776858986</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>129</v>
+        <v>515</v>
       </c>
       <c r="B507">
-        <v>9867791780</v>
+        <v>9420059303</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="B508">
-        <v>9890497660</v>
+        <v>9967792829</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B509">
-        <v>9321432024</v>
+        <v>9967792829</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B510">
-        <v>9833510450</v>
+        <v>9967792829</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>133</v>
+        <v>489</v>
       </c>
       <c r="B511">
-        <v>9082633855</v>
+        <v>9819275429</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="B512">
-        <v>8652275666</v>
+        <v>9769426565</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>135</v>
+        <v>509</v>
       </c>
       <c r="B513">
-        <v>7021546818</v>
+        <v>9664357976</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="B514">
-        <v>9167553949</v>
+        <v>9372945464</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>137</v>
+        <v>293</v>
       </c>
       <c r="B515">
-        <v>9149036209</v>
+        <v>9663700375</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>138</v>
+        <v>510</v>
       </c>
       <c r="B516">
-        <v>9953456995</v>
+        <v>9820422197</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>548</v>
+        <v>333</v>
       </c>
       <c r="B517">
-        <v>829566636</v>
+        <v>8451954202</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="B518">
-        <v>9820262631</v>
+        <v>9899471626</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="B519">
-        <v>9820795501</v>
+        <v>9899471626</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="B520">
-        <v>9011055371</v>
+        <v>9899471626</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B521">
-        <v>9561102181</v>
+        <v>9899471626</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>143</v>
+        <v>530</v>
       </c>
       <c r="B522">
-        <v>9819052196</v>
+        <v>6392907996</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>144</v>
+        <v>533</v>
       </c>
       <c r="B523">
-        <v>9967792829</v>
+        <v>8160080889</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="B524">
-        <v>8652275666</v>
+        <v>9689444578</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="B525">
-        <v>8652270666</v>
+        <v>9689444578</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="B526">
-        <v>7728095633</v>
+        <v>9600129709</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>148</v>
+        <v>323</v>
       </c>
       <c r="B527">
-        <v>8097084551</v>
+        <v>9040478900</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="B528">
-        <v>9710660603</v>
+        <v>8446910423</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>150</v>
+        <v>513</v>
       </c>
       <c r="B529">
-        <v>8106669966</v>
+        <v>9004503132</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B530">
-        <v>9833934232</v>
+        <v>9004503132</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B531">
-        <v>9833837169</v>
+        <v>9004503132</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>153</v>
+        <v>448</v>
       </c>
       <c r="B532">
-        <v>9820507676</v>
+        <v>8591713181</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>154</v>
+        <v>330</v>
       </c>
       <c r="B533">
-        <v>9820721410</v>
+        <v>7977949921</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>124</v>
+        <v>373</v>
       </c>
       <c r="B534">
-        <v>9820186744</v>
+        <v>9004249569</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B535">
-        <v>9820186744</v>
+        <v>9930951031</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="B536">
-        <v>7506907585</v>
+        <v>8838078495</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B537">
-        <v>7506907585</v>
+        <v>9890497660</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="B538">
-        <v>9082416001</v>
+        <v>9987735818</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>157</v>
+        <v>433</v>
       </c>
       <c r="B539">
-        <v>7021019161</v>
+        <v>9421183831</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>144</v>
+        <v>446</v>
       </c>
       <c r="B540">
-        <v>9967792829</v>
+        <v>9321641012</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="B541">
-        <v>7977145358</v>
+        <v>9820008384</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="B542">
-        <v>8356821320</v>
+        <v>9619891599</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="B543">
-        <v>9987214954</v>
+        <v>8928606139</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="B544">
-        <v>9930951031</v>
+        <v>9606853332</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="B545">
-        <v>7387425832</v>
+        <v>9606853332</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>163</v>
+        <v>362</v>
       </c>
       <c r="B546">
-        <v>9833556777</v>
+        <v>9967782680</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>164</v>
+        <v>474</v>
       </c>
       <c r="B547">
-        <v>8248161357</v>
+        <v>8454903845</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="B548">
-        <v>9819032325</v>
+        <v>7977257792</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>166</v>
+        <v>505</v>
       </c>
       <c r="B549">
-        <v>9833156022</v>
+        <v>9167291980</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="B550">
-        <v>9820602288</v>
+        <v>9820177357</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B551">
-        <v>9321511042</v>
+        <v>7977201625</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="B552">
-        <v>9912934202</v>
+        <v>8169360339</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B553">
-        <v>9769459690</v>
+        <v>7219896663</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="B554">
-        <v>9962002563</v>
+        <v>9999048026</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>171</v>
+        <v>511</v>
       </c>
       <c r="B555">
-        <v>8693060355</v>
+        <v>8080698454</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>3</v>
+        <v>456</v>
       </c>
       <c r="B556">
-        <v>9899471626</v>
+        <v>7045840470</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
       <c r="B557">
-        <v>9916202245</v>
+        <v>8506088080</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="B558">
-        <v>7303258528</v>
+        <v>9769349626</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="B559">
-        <v>9820929686</v>
+        <v>9810252312</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>175</v>
+        <v>502</v>
       </c>
       <c r="B560">
-        <v>8652550479</v>
+        <v>9324099139</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="B561">
-        <v>9833194369</v>
+        <v>6026868805</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="B562">
-        <v>9072205214</v>
+        <v>6026868805</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>178</v>
+        <v>454</v>
       </c>
       <c r="B563">
-        <v>8451004728</v>
+        <v>9987386122</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B564">
-        <v>7045758212</v>
+        <v>8200220324</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>180</v>
+        <v>491</v>
       </c>
       <c r="B565">
-        <v>9820957903</v>
+        <v>8072136738</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>181</v>
+        <v>363</v>
       </c>
       <c r="B566">
-        <v>8552960534</v>
+        <v>9619096066</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="B567">
-        <v>8451816579</v>
+        <v>9930279350</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="B568">
-        <v>9595555222</v>
+        <v>8169088234</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>184</v>
+        <v>399</v>
       </c>
       <c r="B569">
-        <v>8792609233</v>
+        <v>8879318169</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>56</v>
+        <v>459</v>
       </c>
       <c r="B570">
-        <v>9962551828</v>
+        <v>9029113557</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B571">
-        <v>9886130891</v>
+        <v>9072205214</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B572">
-        <v>9742659462</v>
+        <v>8281069149</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="B573">
-        <v>9945794472</v>
+        <v>9040991010</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="B574">
-        <v>8128668021</v>
+        <v>9167470189</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="B575">
-        <v>9166982333</v>
+        <v>9969261694</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>190</v>
+        <v>405</v>
       </c>
       <c r="B576">
-        <v>8369325934</v>
+        <v>9331018474</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="B577">
-        <v>9167308720</v>
+        <v>9004574044</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="B578">
-        <v>9867338598</v>
+        <v>9619639825</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B579">
-        <v>7012280263</v>
+        <v>9867430108</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B580">
-        <v>7005119845</v>
+        <v>9867430108</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="B581">
-        <v>8425996969</v>
+        <v>8828870458</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="B582">
-        <v>8822132577</v>
+        <v>8828870458</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="B583">
-        <v>7827050737</v>
+        <v>8828870458</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="B584">
-        <v>8200220324</v>
+        <v>9710660603</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="B585">
-        <v>9028233523</v>
+        <v>7021019161</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B586">
-        <v>9820554885</v>
+        <v>8652550479</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="B587">
-        <v>9987735818</v>
+        <v>7620587795</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="B588">
-        <v>9769801996</v>
+        <v>9819826246</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>202</v>
+        <v>488</v>
       </c>
       <c r="B589">
-        <v>9674457446</v>
+        <v>8450995425</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>2</v>
+        <v>375</v>
       </c>
       <c r="B590">
-        <v>8828870458</v>
+        <v>8082550808</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>203</v>
+        <v>536</v>
       </c>
       <c r="B591">
-        <v>9920695648</v>
+        <v>9384066869</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="B592">
-        <v>9964294283</v>
+        <v>9962377585</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>205</v>
+        <v>381</v>
       </c>
       <c r="B593">
-        <v>9819183383</v>
+        <v>8669104877</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="B594">
-        <v>8802317310</v>
+        <v>8669104877</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="B595">
-        <v>8281069149</v>
+        <v>8669104877</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>208</v>
+        <v>498</v>
       </c>
       <c r="B596">
-        <v>8891111205</v>
+        <v>9029901209</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="B597">
-        <v>8838078495</v>
+        <v>9619796198</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>208</v>
+        <v>521</v>
       </c>
       <c r="B598">
-        <v>8891111205</v>
+        <v>9820263099</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>210</v>
+        <v>521</v>
       </c>
       <c r="B599">
-        <v>9867430108</v>
+        <v>9820263099</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B600">
-        <v>8974249714</v>
+        <v>8484001912</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>148</v>
+        <v>404</v>
       </c>
       <c r="B601">
-        <v>9567013014</v>
+        <v>9820929225</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>212</v>
+        <v>353</v>
       </c>
       <c r="B602">
-        <v>9664852211</v>
+        <v>8657324965</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="B603">
-        <v>9923356253</v>
+        <v>8860432961</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>214</v>
+        <v>508</v>
       </c>
       <c r="B604">
-        <v>9773314239</v>
+        <v>8097678023</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="B605">
-        <v>9920308590</v>
+        <v>9769725949</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="B606">
-        <v>9999898898</v>
+        <v>9820512543</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="B607">
-        <v>9899471626</v>
+        <v>9820262631</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="B608">
-        <v>9987589112</v>
+        <v>8657932932</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>218</v>
+        <v>529</v>
       </c>
       <c r="B609">
-        <v>7989759604</v>
+        <v>9822460660</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B610">
-        <v>8341000003</v>
+        <v>9920308590</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>220</v>
+        <v>427</v>
       </c>
       <c r="B611">
-        <v>8552960534</v>
+        <v>7021101748</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>221</v>
+        <v>357</v>
       </c>
       <c r="B612">
-        <v>8588897285</v>
+        <v>9769218214</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B613">
-        <v>8082367100</v>
+        <v>9167308720</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="B614">
-        <v>9619806615</v>
+        <v>9167308720</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>224</v>
+        <v>328</v>
       </c>
       <c r="B615">
-        <v>9820820297</v>
+        <v>9029413621</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>224</v>
+        <v>423</v>
       </c>
       <c r="B616">
-        <v>9820820297</v>
+        <v>9619120512</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>225</v>
+        <v>423</v>
       </c>
       <c r="B617">
-        <v>9920799405</v>
+        <v>9619120512</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="B618">
-        <v>8511207086</v>
+        <v>9833837169</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>227</v>
+        <v>447</v>
       </c>
       <c r="B619">
-        <v>9820177357</v>
+        <v>9372002278</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="B620">
-        <v>8169088234</v>
+        <v>9619470025</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="B621">
-        <v>9930279350</v>
+        <v>9916202245</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="B622">
-        <v>9021783215</v>
+        <v>9619924240</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="B623">
-        <v>9953907009</v>
+        <v>8652870252</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>231</v>
+        <v>50</v>
       </c>
       <c r="B624">
-        <v>7276735140</v>
+        <v>9619192575</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="B625">
-        <v>9833879813</v>
+        <v>9096651692</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>233</v>
+        <v>66</v>
       </c>
       <c r="B626">
-        <v>7900067921</v>
+        <v>9890115400</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="B627">
-        <v>9078025169</v>
+        <v>9890115400</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>235</v>
+        <v>518</v>
       </c>
       <c r="B628">
-        <v>9833328499</v>
+        <v>9920850021</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="B629">
-        <v>9558721001</v>
+        <v>8879092962</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="B630">
-        <v>7506055660</v>
+        <v>7977450445</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>238</v>
+        <v>326</v>
       </c>
       <c r="B631">
-        <v>8779039771</v>
+        <v>740039888</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="B632">
-        <v>8484001912</v>
+        <v>740039888</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="B633">
-        <v>8779039771</v>
+        <v>8693060355</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="B634">
-        <v>8850398501</v>
+        <v>9321564419</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B635">
-        <v>9600129709</v>
+        <v>8879685456</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="B636">
-        <v>9040991010</v>
+        <v>9167001530</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="B637">
-        <v>9820877238</v>
+        <v>9836295855</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>549</v>
+      </c>
+      <c r="B638">
+        <v>9870527031</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>550</v>
+      </c>
+      <c r="B639">
+        <v>7977539750</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>550</v>
+      </c>
+      <c r="B640">
+        <v>7977539750</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>551</v>
+      </c>
+      <c r="B641">
+        <v>9820511483</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>552</v>
+      </c>
+      <c r="B642">
+        <v>9810665199</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>552</v>
+      </c>
+      <c r="B643">
+        <v>9810665199</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>553</v>
+      </c>
+      <c r="B644">
+        <v>9820371360</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>554</v>
+      </c>
+      <c r="B645">
+        <v>9930554976</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>555</v>
+      </c>
+      <c r="B646">
+        <v>9833685939</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>556</v>
+      </c>
+      <c r="B647">
+        <v>9082538563</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>321</v>
+      </c>
+      <c r="B648">
+        <v>9833533964</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>557</v>
+      </c>
+      <c r="B649">
+        <v>9051377093</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>558</v>
+      </c>
+      <c r="B650">
+        <v>9438394353</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>559</v>
+      </c>
+      <c r="B651">
+        <v>9145666098</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>560</v>
+      </c>
+      <c r="B652">
+        <v>8828276676</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>561</v>
+      </c>
+      <c r="B653">
+        <v>8879571253</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>562</v>
+      </c>
+      <c r="B654">
+        <v>9619429214</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>563</v>
+      </c>
+      <c r="B655">
+        <v>9899053078</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>564</v>
+      </c>
+      <c r="B656">
+        <v>9820136977</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>565</v>
+      </c>
+      <c r="B657">
+        <v>9136317669</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>566</v>
+      </c>
+      <c r="B658">
+        <v>9769305252</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>567</v>
+      </c>
+      <c r="B659">
+        <v>8554958923</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>568</v>
+      </c>
+      <c r="B660">
+        <v>9833056696</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>569</v>
+      </c>
+      <c r="B661">
+        <v>9847394397</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>570</v>
+      </c>
+      <c r="B662">
+        <v>8080828292</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>571</v>
+      </c>
+      <c r="B663">
+        <v>8655321218</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>572</v>
+      </c>
+      <c r="B664">
+        <v>9920738284</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>573</v>
+      </c>
+      <c r="B665">
+        <v>9930778356</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>378</v>
+      </c>
+      <c r="B666">
+        <v>8169429844</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>574</v>
+      </c>
+      <c r="B667">
+        <v>9930026602</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>575</v>
+      </c>
+      <c r="B668">
+        <v>9833420296</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>576</v>
+      </c>
+      <c r="B669">
+        <v>9930644367</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>494</v>
+      </c>
+      <c r="B670">
+        <v>8879760287</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>577</v>
+      </c>
+      <c r="B671">
+        <v>8547171016</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>578</v>
+      </c>
+      <c r="B672">
+        <v>9662815968</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>579</v>
+      </c>
+      <c r="B673">
+        <v>9958400865</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>580</v>
+      </c>
+      <c r="B674">
+        <v>7977856349</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>581</v>
+      </c>
+      <c r="B675">
+        <v>9987998369</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>582</v>
+      </c>
+      <c r="B676">
+        <v>9930893778</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>583</v>
+      </c>
+      <c r="B677">
+        <v>9321779584</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>584</v>
+      </c>
+      <c r="B678">
+        <v>8850738282</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>584</v>
+      </c>
+      <c r="B679">
+        <v>8850738282</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>585</v>
+      </c>
+      <c r="B680">
+        <v>7276830229</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>586</v>
+      </c>
+      <c r="B681">
+        <v>7738314187</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>587</v>
+      </c>
+      <c r="B682">
+        <v>9870039977</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>588</v>
+      </c>
+      <c r="B683">
+        <v>7019175156</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>589</v>
+      </c>
+      <c r="B684">
+        <v>9711093260</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>590</v>
+      </c>
+      <c r="B685">
+        <v>9324029174</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>591</v>
+      </c>
+      <c r="B686">
+        <v>9909912582</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>592</v>
+      </c>
+      <c r="B687">
+        <v>8978504852</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>310</v>
+      </c>
+      <c r="B688">
+        <v>9825613136</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>593</v>
+      </c>
+      <c r="B689">
+        <v>9821841855</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>593</v>
+      </c>
+      <c r="B690">
+        <v>9821841855</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>594</v>
+      </c>
+      <c r="B691">
+        <v>9324058920</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>595</v>
+      </c>
+      <c r="B692">
+        <v>9819679846</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>596</v>
+      </c>
+      <c r="B693">
+        <v>9324464672</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>597</v>
+      </c>
+      <c r="B694">
+        <v>9082618459</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>598</v>
+      </c>
+      <c r="B695">
+        <v>9619468629</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>599</v>
+      </c>
+      <c r="B696">
+        <v>9920055831</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>600</v>
+      </c>
+      <c r="B697">
+        <v>9820882011</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>601</v>
+      </c>
+      <c r="B698">
+        <v>9930954051</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>602</v>
+      </c>
+      <c r="B699">
+        <v>9920807770</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>602</v>
+      </c>
+      <c r="B700">
+        <v>9920807770</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>603</v>
+      </c>
+      <c r="B701">
+        <v>9321497478</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>604</v>
+      </c>
+      <c r="B702">
+        <v>8097838291</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>605</v>
+      </c>
+      <c r="B703">
+        <v>9769465469</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>606</v>
+      </c>
+      <c r="B704">
+        <v>9819838057</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>607</v>
+      </c>
+      <c r="B705">
+        <v>9167766068</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>608</v>
+      </c>
+      <c r="B706">
+        <v>7506767964</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>609</v>
+      </c>
+      <c r="B707">
+        <v>7021431048</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>610</v>
+      </c>
+      <c r="B708">
+        <v>7400387131</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>611</v>
+      </c>
+      <c r="B709">
+        <v>9653385041</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>167</v>
+      </c>
+      <c r="B710">
+        <v>9653385041</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>612</v>
+      </c>
+      <c r="B711">
+        <v>9987515506</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>613</v>
+      </c>
+      <c r="B712">
+        <v>9870646110</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>614</v>
+      </c>
+      <c r="B713">
+        <v>7380703338</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>615</v>
+      </c>
+      <c r="B714">
+        <v>9969948246</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>616</v>
+      </c>
+      <c r="B715">
+        <v>9930396783</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>617</v>
+      </c>
+      <c r="B716">
+        <v>9820130415</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>617</v>
+      </c>
+      <c r="B717">
+        <v>9820130415</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>618</v>
+      </c>
+      <c r="B718">
+        <v>8291028514</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>619</v>
+      </c>
+      <c r="B719">
+        <v>9664299114</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>620</v>
+      </c>
+      <c r="B720">
+        <v>9619355434</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>621</v>
+      </c>
+      <c r="B721">
+        <v>8451009595</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>146</v>
+      </c>
+      <c r="B722">
+        <v>8369945931</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>622</v>
+      </c>
+      <c r="B723">
+        <v>7045486902</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>623</v>
+      </c>
+      <c r="B724">
+        <v>8897802994</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>624</v>
+      </c>
+      <c r="B725">
+        <v>7499862371</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>625</v>
+      </c>
+      <c r="B726">
+        <v>9769335946</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>626</v>
+      </c>
+      <c r="B727">
+        <v>8506014306</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>627</v>
+      </c>
+      <c r="B728">
+        <v>9920984115</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>628</v>
+      </c>
+      <c r="B729">
+        <v>9311471433</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>628</v>
+      </c>
+      <c r="B730">
+        <v>9311471433</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>629</v>
+      </c>
+      <c r="B731">
+        <v>8876169212</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>630</v>
+      </c>
+      <c r="B732">
+        <v>9819115959</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>631</v>
+      </c>
+      <c r="B733">
+        <v>8879316715</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>632</v>
+      </c>
+      <c r="B734">
+        <v>7208307327</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>633</v>
+      </c>
+      <c r="B735">
+        <v>9284370459</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>634</v>
+      </c>
+      <c r="B736">
+        <v>9820180229</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>635</v>
+      </c>
+      <c r="B737">
+        <v>7558602967</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>636</v>
+      </c>
+      <c r="B738">
+        <v>8999806058</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>637</v>
+      </c>
+      <c r="B739">
+        <v>9629267316</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>638</v>
+      </c>
+      <c r="B740">
+        <v>9137573359</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>639</v>
+      </c>
+      <c r="B741">
+        <v>9820400051</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>640</v>
+      </c>
+      <c r="B742">
+        <v>9821152349</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>641</v>
+      </c>
+      <c r="B743">
+        <v>8879626999</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>642</v>
+      </c>
+      <c r="B744">
+        <v>9867421370</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>643</v>
+      </c>
+      <c r="B745">
+        <v>8857033343</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>644</v>
+      </c>
+      <c r="B746">
+        <v>9664822413</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>645</v>
+      </c>
+      <c r="B747">
+        <v>8468866811</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>646</v>
+      </c>
+      <c r="B748">
+        <v>9920154910</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>647</v>
+      </c>
+      <c r="B749">
+        <v>8778293452</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>648</v>
+      </c>
+      <c r="B750">
+        <v>6200106270</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>649</v>
+      </c>
+      <c r="B751">
+        <v>9930227163</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>650</v>
+      </c>
+      <c r="B752">
+        <v>8591877742</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>651</v>
+      </c>
+      <c r="B753">
+        <v>9967570990</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>652</v>
+      </c>
+      <c r="B754">
+        <v>9922002208</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>653</v>
+      </c>
+      <c r="B755">
+        <v>9082055297</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>654</v>
+      </c>
+      <c r="B756">
+        <v>9769720843</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>655</v>
+      </c>
+      <c r="B757">
+        <v>9769434263</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>656</v>
+      </c>
+      <c r="B758">
+        <v>8097195180</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>657</v>
+      </c>
+      <c r="B759">
+        <v>9238350503</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>658</v>
+      </c>
+      <c r="B760">
+        <v>7045424094</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>659</v>
+      </c>
+      <c r="B761">
+        <v>9324652020</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>660</v>
+      </c>
+      <c r="B762">
+        <v>9873558981</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>661</v>
+      </c>
+      <c r="B763">
+        <v>9819325589</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>662</v>
+      </c>
+      <c r="B764">
+        <v>9892806268</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>663</v>
+      </c>
+      <c r="B765">
+        <v>9820173637</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>664</v>
+      </c>
+      <c r="B766">
+        <v>9619984423</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>665</v>
+      </c>
+      <c r="B767">
+        <v>7738521072</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>666</v>
+      </c>
+      <c r="B768">
+        <v>9869784553</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>667</v>
+      </c>
+      <c r="B769">
+        <v>9930202706</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>668</v>
+      </c>
+      <c r="B770">
+        <v>8850649226</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>669</v>
+      </c>
+      <c r="B771">
+        <v>9820582123</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>669</v>
+      </c>
+      <c r="B772">
+        <v>9820582123</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>670</v>
+      </c>
+      <c r="B773">
+        <v>9967799458</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>671</v>
+      </c>
+      <c r="B774">
+        <v>9769517676</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>672</v>
+      </c>
+      <c r="B775">
+        <v>9821604540</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>673</v>
+      </c>
+      <c r="B776">
+        <v>9167794598</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>673</v>
+      </c>
+      <c r="B777">
+        <v>9167794598</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>674</v>
+      </c>
+      <c r="B778">
+        <v>9819606448</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>675</v>
+      </c>
+      <c r="B779">
+        <v>8454040716</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>676</v>
+      </c>
+      <c r="B780">
+        <v>8291483066</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>676</v>
+      </c>
+      <c r="B781">
+        <v>8291483066</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>676</v>
+      </c>
+      <c r="B782">
+        <v>8291483066</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>677</v>
+      </c>
+      <c r="B783">
+        <v>7977272398</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>677</v>
+      </c>
+      <c r="B784">
+        <v>7977272398</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>678</v>
+      </c>
+      <c r="B785">
+        <v>9755333335</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>679</v>
+      </c>
+      <c r="B786">
+        <v>9653270935</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>33</v>
+      </c>
+      <c r="B787">
+        <v>9326045612</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>680</v>
+      </c>
+      <c r="B788">
+        <v>8082314758</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>681</v>
+      </c>
+      <c r="B789">
+        <v>9920959342</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>682</v>
+      </c>
+      <c r="B790">
+        <v>9871469911</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>682</v>
+      </c>
+      <c r="B791">
+        <v>9871469911</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>683</v>
+      </c>
+      <c r="B792">
+        <v>9820052341</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>684</v>
+      </c>
+      <c r="B793">
+        <v>7715857490</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>685</v>
+      </c>
+      <c r="B794">
+        <v>8928724334</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>686</v>
+      </c>
+      <c r="B795">
+        <v>9167934841</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>687</v>
+      </c>
+      <c r="B796">
+        <v>7738440125</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>687</v>
+      </c>
+      <c r="B797">
+        <v>7738440125</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>687</v>
+      </c>
+      <c r="B798">
+        <v>7738440125</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>688</v>
+      </c>
+      <c r="B799">
+        <v>8591447945</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>689</v>
+      </c>
+      <c r="B800">
+        <v>9867185927</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>690</v>
+      </c>
+      <c r="B801">
+        <v>9820040790</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>691</v>
+      </c>
+      <c r="B802">
+        <v>8850825291</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>692</v>
+      </c>
+      <c r="B803">
+        <v>9867185927</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>693</v>
+      </c>
+      <c r="B804">
+        <v>7506250335</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>694</v>
+      </c>
+      <c r="B805">
+        <v>8879476531</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>695</v>
+      </c>
+      <c r="B806">
+        <v>9747506803</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>696</v>
+      </c>
+      <c r="B807">
+        <v>8828140237</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>697</v>
+      </c>
+      <c r="B808">
+        <v>9860233571</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>697</v>
+      </c>
+      <c r="B809">
+        <v>9860233571</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>698</v>
+      </c>
+      <c r="B810">
+        <v>9664458119</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>226</v>
+      </c>
+      <c r="B811">
+        <v>7057006666</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>699</v>
+      </c>
+      <c r="B812">
+        <v>8169222598</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>700</v>
+      </c>
+      <c r="B813">
+        <v>9820512271</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>701</v>
+      </c>
+      <c r="B814">
+        <v>9773296976</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>702</v>
+      </c>
+      <c r="B815">
+        <v>8452853194</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>703</v>
+      </c>
+      <c r="B816">
+        <v>9028817192</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>704</v>
+      </c>
+      <c r="B817">
+        <v>8777437159</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>705</v>
+      </c>
+      <c r="B818">
+        <v>7709011149</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>706</v>
+      </c>
+      <c r="B819">
+        <v>9820333447</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>707</v>
+      </c>
+      <c r="B820">
+        <v>9172711885</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>708</v>
+      </c>
+      <c r="B821">
+        <v>9029296192</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>387</v>
+      </c>
+      <c r="B822">
+        <v>9920556440</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>386</v>
+      </c>
+      <c r="B823">
+        <v>8779191206</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>709</v>
+      </c>
+      <c r="B824">
+        <v>7823098293</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>710</v>
+      </c>
+      <c r="B825">
+        <v>9958177525</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>711</v>
+      </c>
+      <c r="B826">
+        <v>9167632047</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>712</v>
+      </c>
+      <c r="B827">
+        <v>8104541449</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>713</v>
+      </c>
+      <c r="B828">
+        <v>9820390923</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>349</v>
+      </c>
+      <c r="B829">
+        <v>6353121446</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>714</v>
+      </c>
+      <c r="B830">
+        <v>9426072862</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>715</v>
+      </c>
+      <c r="B831">
+        <v>9740329914</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>715</v>
+      </c>
+      <c r="B832">
+        <v>9740329914</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>339</v>
+      </c>
+      <c r="B833">
+        <v>9821246458</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>716</v>
+      </c>
+      <c r="B834">
+        <v>9820735842</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>717</v>
+      </c>
+      <c r="B835">
+        <v>9082190583</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>718</v>
+      </c>
+      <c r="B836">
+        <v>9459835100</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>719</v>
+      </c>
+      <c r="B837">
+        <v>8450912190</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>720</v>
+      </c>
+      <c r="B838">
+        <v>9326924068</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>721</v>
+      </c>
+      <c r="B839">
+        <v>9702711555</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>722</v>
+      </c>
+      <c r="B840">
+        <v>9082580686</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>723</v>
+      </c>
+      <c r="B841">
+        <v>8792287603</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>724</v>
+      </c>
+      <c r="B842">
+        <v>9000392703</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>725</v>
+      </c>
+      <c r="B843">
+        <v>8097421245</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>726</v>
+      </c>
+      <c r="B844">
+        <v>9815321345</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>727</v>
+      </c>
+      <c r="B845">
+        <v>9820735508</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>728</v>
+      </c>
+      <c r="B846">
+        <v>7977457284</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>729</v>
+      </c>
+      <c r="B847">
+        <v>9820637140</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>730</v>
+      </c>
+      <c r="B848">
+        <v>9400792394</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>731</v>
+      </c>
+      <c r="B849">
+        <v>7774092156</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>732</v>
+      </c>
+      <c r="B850">
+        <v>9820534866</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>187</v>
+      </c>
+      <c r="B851">
+        <v>7021132646</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>733</v>
+      </c>
+      <c r="B852">
+        <v>7304444488</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>734</v>
+      </c>
+      <c r="B853">
+        <v>8291577639</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>735</v>
+      </c>
+      <c r="B854">
+        <v>7058061181</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>736</v>
+      </c>
+      <c r="B855">
+        <v>7058061181</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>737</v>
+      </c>
+      <c r="B856">
+        <v>8899954472</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>738</v>
+      </c>
+      <c r="B857">
+        <v>8108698492</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>739</v>
+      </c>
+      <c r="B858">
+        <v>8433594041</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>740</v>
+      </c>
+      <c r="B859">
+        <v>9870006106</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>741</v>
+      </c>
+      <c r="B860">
+        <v>9767049482</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>742</v>
+      </c>
+      <c r="B861">
+        <v>7900100273</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>743</v>
+      </c>
+      <c r="B862">
+        <v>9930510885</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>744</v>
+      </c>
+      <c r="B863">
+        <v>9545290755</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>745</v>
+      </c>
+      <c r="B864">
+        <v>9820439648</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>746</v>
+      </c>
+      <c r="B865">
+        <v>9920160712</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>747</v>
+      </c>
+      <c r="B866">
+        <v>9665791569</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>748</v>
+      </c>
+      <c r="B867">
+        <v>8452944475</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>749</v>
+      </c>
+      <c r="B868">
+        <v>8355885342</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>749</v>
+      </c>
+      <c r="B869">
+        <v>8355885342</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>750</v>
+      </c>
+      <c r="B870">
+        <v>8454028087</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>751</v>
+      </c>
+      <c r="B871">
+        <v>7666172635</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>752</v>
+      </c>
+      <c r="B872">
+        <v>9958286697</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>752</v>
+      </c>
+      <c r="B873">
+        <v>9958286697</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>753</v>
+      </c>
+      <c r="B874">
+        <v>7506017263</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>754</v>
+      </c>
+      <c r="B875">
+        <v>9967624817</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>755</v>
+      </c>
+      <c r="B876">
+        <v>9930027650</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>756</v>
+      </c>
+      <c r="B877">
+        <v>9731872002</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>757</v>
+      </c>
+      <c r="B878">
+        <v>9862079386</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>758</v>
+      </c>
+      <c r="B879">
+        <v>8369912326</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>759</v>
+      </c>
+      <c r="B880">
+        <v>9082173633</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>760</v>
+      </c>
+      <c r="B881">
+        <v>9870066808</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>761</v>
+      </c>
+      <c r="B882">
+        <v>9833015750</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>762</v>
+      </c>
+      <c r="B883">
+        <v>8828044398</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>763</v>
+      </c>
+      <c r="B884">
+        <v>9304040542</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>764</v>
+      </c>
+      <c r="B885">
+        <v>9321452533</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>765</v>
+      </c>
+      <c r="B886">
+        <v>9073103763</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>766</v>
+      </c>
+      <c r="B887">
+        <v>7738884960</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>767</v>
+      </c>
+      <c r="B888">
+        <v>9890870348</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>768</v>
+      </c>
+      <c r="B889">
+        <v>7000501617</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>768</v>
+      </c>
+      <c r="B890">
+        <v>7000501617</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>769</v>
+      </c>
+      <c r="B891">
+        <v>8454927472</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>770</v>
+      </c>
+      <c r="B892">
+        <v>9004803430</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>771</v>
+      </c>
+      <c r="B893">
+        <v>9082502858</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>772</v>
+      </c>
+      <c r="B894">
+        <v>9930523569</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>773</v>
+      </c>
+      <c r="B895">
+        <v>9167529242</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>774</v>
+      </c>
+      <c r="B896">
+        <v>9833464191</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>775</v>
+      </c>
+      <c r="B897">
+        <v>9757019804</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>776</v>
+      </c>
+      <c r="B898">
+        <v>8082768504</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>777</v>
+      </c>
+      <c r="B899">
+        <v>7588651070</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>778</v>
+      </c>
+      <c r="B900">
+        <v>9911223217</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>779</v>
+      </c>
+      <c r="B901">
+        <v>9321554280</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>780</v>
+      </c>
+      <c r="B902">
+        <v>9920207042</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>780</v>
+      </c>
+      <c r="B903">
+        <v>9920207042</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>780</v>
+      </c>
+      <c r="B904">
+        <v>9920207042</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>781</v>
+      </c>
+      <c r="B905">
+        <v>9967035322</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>782</v>
+      </c>
+      <c r="B906">
+        <v>8828285867</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>783</v>
+      </c>
+      <c r="B907">
+        <v>9004977898</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>784</v>
+      </c>
+      <c r="B908">
+        <v>7738132494</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>785</v>
+      </c>
+      <c r="B909">
+        <v>8080710022</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>785</v>
+      </c>
+      <c r="B910">
+        <v>8080710022</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>786</v>
+      </c>
+      <c r="B911">
+        <v>9870246324</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>123</v>
+      </c>
+      <c r="B912">
+        <v>9152517317</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>787</v>
+      </c>
+      <c r="B913">
+        <v>9819835193</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>788</v>
+      </c>
+      <c r="B914">
+        <v>8591359658</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>789</v>
+      </c>
+      <c r="B915">
+        <v>9769387326</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>790</v>
+      </c>
+      <c r="B916">
+        <v>9987011453</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>791</v>
+      </c>
+      <c r="B917">
+        <v>9110392322</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>792</v>
+      </c>
+      <c r="B918">
+        <v>9137696908</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>793</v>
+      </c>
+      <c r="B919">
+        <v>8879533819</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>794</v>
+      </c>
+      <c r="B920">
+        <v>9867467721</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>795</v>
+      </c>
+      <c r="B921">
+        <v>9136018332</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>796</v>
+      </c>
+      <c r="B922">
+        <v>9833453026</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>797</v>
+      </c>
+      <c r="B923">
+        <v>8921137136</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>798</v>
+      </c>
+      <c r="B924">
+        <v>9867421370</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>799</v>
+      </c>
+      <c r="B925">
+        <v>9702004516</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>800</v>
+      </c>
+      <c r="B926">
+        <v>9833613391</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>50</v>
+      </c>
+      <c r="B927">
+        <v>9022820550</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>801</v>
+      </c>
+      <c r="B928">
+        <v>9158282002</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>802</v>
+      </c>
+      <c r="B929">
+        <v>9699330001</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>803</v>
+      </c>
+      <c r="B930">
+        <v>9819070711</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>804</v>
+      </c>
+      <c r="B931">
+        <v>9619690005</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>805</v>
+      </c>
+      <c r="B932">
+        <v>9082901757</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B637">
+    <sortCondition ref="A637"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="880">
   <si>
     <t>First Name</t>
   </si>
@@ -2437,6 +2437,228 @@
   </si>
   <si>
     <t>zeanne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mann Yadav</t>
+  </si>
+  <si>
+    <t>Aaryaman Upasani</t>
+  </si>
+  <si>
+    <t>Aayush gurav</t>
+  </si>
+  <si>
+    <t>Abhishek bharti</t>
+  </si>
+  <si>
+    <t>Aditi deshmukh</t>
+  </si>
+  <si>
+    <t>Akshat</t>
+  </si>
+  <si>
+    <t>Amol</t>
+  </si>
+  <si>
+    <t>Aniruddh K P</t>
+  </si>
+  <si>
+    <t>Anthony Roger Machado</t>
+  </si>
+  <si>
+    <t>Arjun Rupesh Rathod</t>
+  </si>
+  <si>
+    <t>Arun Chopra</t>
+  </si>
+  <si>
+    <t>Aryamaan Singh</t>
+  </si>
+  <si>
+    <t>Aryaman Khemlani</t>
+  </si>
+  <si>
+    <t>Asif Abdul shaikh</t>
+  </si>
+  <si>
+    <t>Atharv Puranik</t>
+  </si>
+  <si>
+    <t>Atharva Khot</t>
+  </si>
+  <si>
+    <t>Avinash Mukherjee</t>
+  </si>
+  <si>
+    <t>Aziz</t>
+  </si>
+  <si>
+    <t>Bhavesh tanna</t>
+  </si>
+  <si>
+    <t>Craig Vallado</t>
+  </si>
+  <si>
+    <t>Darshan</t>
+  </si>
+  <si>
+    <t>Devang Raval</t>
+  </si>
+  <si>
+    <t>Divyam Patel</t>
+  </si>
+  <si>
+    <t>Dripto</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Gareth</t>
+  </si>
+  <si>
+    <t>Harsh Bangera</t>
+  </si>
+  <si>
+    <t>Hitesh More</t>
+  </si>
+  <si>
+    <t>Hussain haider</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Jeet</t>
+  </si>
+  <si>
+    <t>Joshua Rodrigues</t>
+  </si>
+  <si>
+    <t>Jugal Kahlon</t>
+  </si>
+  <si>
+    <t>Kaif sayyed</t>
+  </si>
+  <si>
+    <t>Khyati panchal</t>
+  </si>
+  <si>
+    <t>Lemuel Alexander</t>
+  </si>
+  <si>
+    <t>LOCHANNIJA</t>
+  </si>
+  <si>
+    <t>Mahesh Baliram Dorve</t>
+  </si>
+  <si>
+    <t>Malav mehta</t>
+  </si>
+  <si>
+    <t>Malav</t>
+  </si>
+  <si>
+    <t>Manav jitesh raut</t>
+  </si>
+  <si>
+    <t>Manish Dilip Pardeshi</t>
+  </si>
+  <si>
+    <t>Muddassir</t>
+  </si>
+  <si>
+    <t>Neha Kashyap</t>
+  </si>
+  <si>
+    <t>Neha Surve</t>
+  </si>
+  <si>
+    <t>Nishit satra</t>
+  </si>
+  <si>
+    <t>Noel Romany</t>
+  </si>
+  <si>
+    <t>Nohin</t>
+  </si>
+  <si>
+    <t>Noman shaikh</t>
+  </si>
+  <si>
+    <t>Omkar Suryakant Tandel</t>
+  </si>
+  <si>
+    <t>Parth alpha</t>
+  </si>
+  <si>
+    <t>Parth jain</t>
+  </si>
+  <si>
+    <t>Prathamesh Tandel</t>
+  </si>
+  <si>
+    <t>Prathan</t>
+  </si>
+  <si>
+    <t>Prerak</t>
+  </si>
+  <si>
+    <t>Priyanshu Bhati</t>
+  </si>
+  <si>
+    <t>Rishi Rohit shah</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Safwan</t>
+  </si>
+  <si>
+    <t>Salman Dawoodbhoy</t>
+  </si>
+  <si>
+    <t>Sandeep Sarkar</t>
+  </si>
+  <si>
+    <t>Shivam</t>
+  </si>
+  <si>
+    <t>Solomon Gomes</t>
+  </si>
+  <si>
+    <t>Swabhanu</t>
+  </si>
+  <si>
+    <t>Tanish Gode</t>
+  </si>
+  <si>
+    <t>Tanmay pareek</t>
+  </si>
+  <si>
+    <t>Tauhid shaikh</t>
+  </si>
+  <si>
+    <t>Tej Chauhan</t>
+  </si>
+  <si>
+    <t>Urvesh</t>
+  </si>
+  <si>
+    <t>Uttej Patil</t>
+  </si>
+  <si>
+    <t>Varad Kulkarni</t>
+  </si>
+  <si>
+    <t>Vikas yadav</t>
+  </si>
+  <si>
+    <t>William Paul</t>
+  </si>
+  <si>
+    <t>Zoya</t>
   </si>
 </sst>
 </file>
@@ -2495,10 +2717,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2804,10 +3029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B932"/>
+  <dimension ref="A1:B1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
-      <selection activeCell="G932" sqref="G932"/>
+    <sheetView tabSelected="1" topLeftCell="A921" workbookViewId="0">
+      <selection activeCell="B933" sqref="B933"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10272,6 +10497,726 @@
         <v>9082901757</v>
       </c>
     </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B933" s="2">
+        <v>9892480752</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B934" s="2">
+        <v>9819859974</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B935" s="2">
+        <v>9082364136</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B936" s="2">
+        <v>9619606272</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B937" s="2">
+        <v>8652347514</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B938" s="2">
+        <v>9867570165</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B939" s="2">
+        <v>9004655436</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B940" s="2">
+        <v>9762231883</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B941" s="2">
+        <v>9321642903</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B942" s="2">
+        <v>9821197085</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B943" s="2">
+        <v>9324007028</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B944" s="2">
+        <v>9971143514</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B945" s="2">
+        <v>8591564411</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B946" s="2">
+        <v>9769905394</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B947" s="2">
+        <v>9821841855</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B948" s="2">
+        <v>8655258063</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B949" s="2">
+        <v>9136114728</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B950" s="2">
+        <v>9321027763</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B951" s="2">
+        <v>8828003800</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B952" s="2">
+        <v>8693052367</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B953" s="2">
+        <v>9820677388</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B954" s="2">
+        <v>9833891391</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B955" s="2">
+        <v>9167462251</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B956" s="2">
+        <v>9870436966</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B957" s="2">
+        <v>9004319924</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B958" s="2">
+        <v>9167973724</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B959" s="2">
+        <v>6289308762</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B960" s="2">
+        <v>8779662328</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B961" s="2">
+        <v>8308452068</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B962" s="2">
+        <v>8433670269</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B963" s="2">
+        <v>9307107404</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B964" s="2">
+        <v>8108761331</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B965" s="2">
+        <v>9920362515</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B966" s="2">
+        <v>9820595991</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B967" s="2">
+        <v>8424095474</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B968" s="2">
+        <v>7021923982</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B969" s="2">
+        <v>8097195158</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B970" s="2">
+        <v>9769097876</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B971" s="2">
+        <v>9004042704</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B972" s="2">
+        <v>9321982816</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B973" s="2">
+        <v>8097305089</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B974" s="2">
+        <v>6359190644</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B975" s="2">
+        <v>9619747949</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B976" s="2">
+        <v>9321614498</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B977" s="2">
+        <v>8169655371</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B978" s="2">
+        <v>9920930030</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B979" s="2">
+        <v>9930026602</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B980" s="2">
+        <v>9321441487</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B981" s="2">
+        <v>8928937275</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B982" s="2">
+        <v>8898008253</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B983" s="2">
+        <v>8828184619</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B984" s="2">
+        <v>9560266055</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B985" s="2">
+        <v>9820798778</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B986" s="2">
+        <v>9477443256</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B987" s="2">
+        <v>9820659940</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B988" s="2">
+        <v>7045821815</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B989" s="2">
+        <v>9082398707</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B990" s="2">
+        <v>8108565494</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B991" s="2">
+        <v>7021453149</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B992" s="2">
+        <v>9820454881</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B993" s="2">
+        <v>8850470519</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B994" s="2">
+        <v>9098282565</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B995" s="2">
+        <v>8104896471</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B996" s="2">
+        <v>8779193951</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B997" s="2">
+        <v>7385102771</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B998" s="2">
+        <v>9588443295</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B999" s="2">
+        <v>9326914887</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1000" s="2">
+        <v>9326874608</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1001" s="2">
+        <v>9619882826</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B1002" s="2">
+        <v>8080667676</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1003" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1003" s="2">
+        <v>9820507956</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1004" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B1004" s="2">
+        <v>8999373818</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1005" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B1005" s="2">
+        <v>7506166432</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1006" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B1006" s="2">
+        <v>8976989747</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1007" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B1007" s="2">
+        <v>9967104139</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1008" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1008" s="2">
+        <v>7977593094</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1009" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B1009" s="2">
+        <v>7900035831</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1010" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1010" s="2">
+        <v>8767387753</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1011" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1011" s="2">
+        <v>9920065350</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1012" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1012" s="2">
+        <v>7391991000</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1013" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B1013" s="2">
+        <v>7718002631</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1014" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1014" s="2">
+        <v>8779189090</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B1015" s="2">
+        <v>9769985317</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1016" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1016" s="2">
+        <v>8928489114</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1017" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B1017" s="2">
+        <v>9404842997</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1018" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B1018" s="2">
+        <v>7276358568</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1019" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B1019" s="2">
+        <v>8850331807</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1020" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1020" s="2">
+        <v>8767833889</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1021" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1021" s="2">
+        <v>8828319269</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1022" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B1022" s="2">
+        <v>9768456469</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B637">
     <sortCondition ref="A637"/>
